--- a/legendre_out/DATA/p1/p1IntegrandSplinePoints0.900000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandSplinePoints0.900000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>5.214172064368218e-25</v>
+        <v>2.731121143157587e-25</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.755890524555461</v>
       </c>
       <c r="C3" t="n">
-        <v>5.209674456860149e-25</v>
+        <v>2.770203845903901e-25</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.756807732038326</v>
       </c>
       <c r="C4" t="n">
-        <v>5.205595375404817e-25</v>
+        <v>2.806646206940188e-25</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.757724939521191</v>
       </c>
       <c r="C5" t="n">
-        <v>5.202106294604331e-25</v>
+        <v>2.840754656263274e-25</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.758642147004056</v>
       </c>
       <c r="C6" t="n">
-        <v>5.199378689060802e-25</v>
+        <v>2.872835623869991e-25</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.759559354486921</v>
       </c>
       <c r="C7" t="n">
-        <v>5.197584033376342e-25</v>
+        <v>2.903195539757165e-25</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.760476561969786</v>
       </c>
       <c r="C8" t="n">
-        <v>5.196893802153065e-25</v>
+        <v>2.93214083392163e-25</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.761393769452651</v>
       </c>
       <c r="C9" t="n">
-        <v>5.197479469993078e-25</v>
+        <v>2.959977936360212e-25</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.762310976935516</v>
       </c>
       <c r="C10" t="n">
-        <v>5.199512511498493e-25</v>
+        <v>2.987013277069742e-25</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.763228184418381</v>
       </c>
       <c r="C11" t="n">
-        <v>5.203164401271422e-25</v>
+        <v>3.013553286047049e-25</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.764145391901245</v>
       </c>
       <c r="C12" t="n">
-        <v>5.208606613913972e-25</v>
+        <v>3.039904393288949e-25</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.76506259938411</v>
       </c>
       <c r="C13" t="n">
-        <v>5.216010624028261e-25</v>
+        <v>3.066373028792298e-25</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.765979806866975</v>
       </c>
       <c r="C14" t="n">
-        <v>5.225547906216396e-25</v>
+        <v>3.093265622553911e-25</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.76689701434984</v>
       </c>
       <c r="C15" t="n">
-        <v>5.23738993508049e-25</v>
+        <v>3.120888604570619e-25</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.767814221832705</v>
       </c>
       <c r="C16" t="n">
-        <v>5.251708185222653e-25</v>
+        <v>3.14954840483925e-25</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.76873142931557</v>
       </c>
       <c r="C17" t="n">
-        <v>5.268674131244997e-25</v>
+        <v>3.179551453356635e-25</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.769648636798435</v>
       </c>
       <c r="C18" t="n">
-        <v>5.288459247749631e-25</v>
+        <v>3.211204180119603e-25</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.7705658442813</v>
       </c>
       <c r="C19" t="n">
-        <v>5.311235009338671e-25</v>
+        <v>3.244813015124981e-25</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.771483051764165</v>
       </c>
       <c r="C20" t="n">
-        <v>5.337172890614224e-25</v>
+        <v>3.280684388369602e-25</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.77240025924703</v>
       </c>
       <c r="C21" t="n">
-        <v>5.366444366178402e-25</v>
+        <v>3.319124729850293e-25</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.773317466729895</v>
       </c>
       <c r="C22" t="n">
-        <v>5.399220910633317e-25</v>
+        <v>3.360440469563885e-25</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.77423467421276</v>
       </c>
       <c r="C23" t="n">
-        <v>5.435673998581079e-25</v>
+        <v>3.404938037507206e-25</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.775151881695625</v>
       </c>
       <c r="C24" t="n">
-        <v>5.475975104623801e-25</v>
+        <v>3.452923863677087e-25</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.77606908917849</v>
       </c>
       <c r="C25" t="n">
-        <v>5.520295703363591e-25</v>
+        <v>3.504704378070355e-25</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.776986296661355</v>
       </c>
       <c r="C26" t="n">
-        <v>5.568807269402563e-25</v>
+        <v>3.560586010683842e-25</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.777903504144219</v>
       </c>
       <c r="C27" t="n">
-        <v>5.621681277342827e-25</v>
+        <v>3.620875191514375e-25</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.778820711627084</v>
       </c>
       <c r="C28" t="n">
-        <v>5.679089201786496e-25</v>
+        <v>3.685878350558786e-25</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.779737919109949</v>
       </c>
       <c r="C29" t="n">
-        <v>5.741202517335679e-25</v>
+        <v>3.755901917813901e-25</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.780655126592814</v>
       </c>
       <c r="C30" t="n">
-        <v>5.808192698592453e-25</v>
+        <v>3.831252323276515e-25</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.781572334075679</v>
       </c>
       <c r="C31" t="n">
-        <v>5.880231220158996e-25</v>
+        <v>3.912235996943528e-25</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.782489541558544</v>
       </c>
       <c r="C32" t="n">
-        <v>5.957489556637387e-25</v>
+        <v>3.999159368811736e-25</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.783406749041409</v>
       </c>
       <c r="C33" t="n">
-        <v>6.040139182629737e-25</v>
+        <v>4.092328868877966e-25</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.784323956524274</v>
       </c>
       <c r="C34" t="n">
-        <v>6.128351572738157e-25</v>
+        <v>4.192050927139049e-25</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.785241164007139</v>
       </c>
       <c r="C35" t="n">
-        <v>6.22229820156476e-25</v>
+        <v>4.298631973591816e-25</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.786158371490004</v>
       </c>
       <c r="C36" t="n">
-        <v>6.322150543711654e-25</v>
+        <v>4.412378438233093e-25</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.787075578972869</v>
       </c>
       <c r="C37" t="n">
-        <v>6.428080073780954e-25</v>
+        <v>4.533596751059713e-25</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.787992786455733</v>
       </c>
       <c r="C38" t="n">
-        <v>6.540258266374769e-25</v>
+        <v>4.662593342068501e-25</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.788909993938598</v>
       </c>
       <c r="C39" t="n">
-        <v>6.658856596095208e-25</v>
+        <v>4.79967464125629e-25</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.789827201421463</v>
       </c>
       <c r="C40" t="n">
-        <v>6.784046537544385e-25</v>
+        <v>4.945147078619907e-25</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.790744408904328</v>
       </c>
       <c r="C41" t="n">
-        <v>6.915999565324412e-25</v>
+        <v>5.099317084156185e-25</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.791661616387193</v>
       </c>
       <c r="C42" t="n">
-        <v>7.054887154037399e-25</v>
+        <v>5.26249108786195e-25</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.792578823870058</v>
       </c>
       <c r="C43" t="n">
-        <v>7.200880778285456e-25</v>
+        <v>5.434975519734033e-25</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.793496031352923</v>
       </c>
       <c r="C44" t="n">
-        <v>7.354151912670695e-25</v>
+        <v>5.617076809769262e-25</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.794413238835788</v>
       </c>
       <c r="C45" t="n">
-        <v>7.514872031795225e-25</v>
+        <v>5.809101387964467e-25</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.795330446318653</v>
       </c>
       <c r="C46" t="n">
-        <v>7.683212610261163e-25</v>
+        <v>6.011355684316478e-25</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.796247653801518</v>
       </c>
       <c r="C47" t="n">
-        <v>7.859345122670616e-25</v>
+        <v>6.224146128822124e-25</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.797164861284383</v>
       </c>
       <c r="C48" t="n">
-        <v>8.043441043625695e-25</v>
+        <v>6.447779151478234e-25</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.798082068767247</v>
       </c>
       <c r="C49" t="n">
-        <v>8.235676483767564e-25</v>
+        <v>6.68256479308633e-25</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.798999276250112</v>
       </c>
       <c r="C50" t="n">
-        <v>8.437357232008691e-25</v>
+        <v>6.929692950636565e-25</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.799916483732977</v>
       </c>
       <c r="C51" t="n">
-        <v>8.652385777528243e-25</v>
+        <v>7.192375975526906e-25</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.800833691215842</v>
       </c>
       <c r="C52" t="n">
-        <v>8.885028087732738e-25</v>
+        <v>7.474109316189135e-25</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.801750898698707</v>
       </c>
       <c r="C53" t="n">
-        <v>9.139550130028702e-25</v>
+        <v>7.778388421055038e-25</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.802668106181572</v>
       </c>
       <c r="C54" t="n">
-        <v>9.420217871822657e-25</v>
+        <v>8.108708738556397e-25</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.803585313664437</v>
       </c>
       <c r="C55" t="n">
-        <v>9.731297280521136e-25</v>
+        <v>8.468565717125005e-25</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.804502521147302</v>
       </c>
       <c r="C56" t="n">
-        <v>1.007705432353066e-24</v>
+        <v>8.861454805192639e-25</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.805419728630167</v>
       </c>
       <c r="C57" t="n">
-        <v>1.046175496825774e-24</v>
+        <v>9.290871451191089e-25</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.806336936113032</v>
       </c>
       <c r="C58" t="n">
-        <v>1.088966518210892e-24</v>
+        <v>9.760311103552139e-25</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.807254143595897</v>
       </c>
       <c r="C59" t="n">
-        <v>1.136505093249072e-24</v>
+        <v>1.027326921070757e-24</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.808171351078762</v>
       </c>
       <c r="C60" t="n">
-        <v>1.189217818680966e-24</v>
+        <v>1.083324122108918e-24</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.809088558561627</v>
       </c>
       <c r="C61" t="n">
-        <v>1.247531291247227e-24</v>
+        <v>1.144372258312874e-24</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.810005766044492</v>
       </c>
       <c r="C62" t="n">
-        <v>1.311872107688507e-24</v>
+        <v>1.210820874525805e-24</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.810922973527357</v>
       </c>
       <c r="C63" t="n">
-        <v>1.382666864745458e-24</v>
+        <v>1.283019515590888e-24</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.811840181010222</v>
       </c>
       <c r="C64" t="n">
-        <v>1.460342159158734e-24</v>
+        <v>1.361317726351302e-24</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.812757388493087</v>
       </c>
       <c r="C65" t="n">
-        <v>1.545324587668986e-24</v>
+        <v>1.446065051650226e-24</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.813674595975951</v>
       </c>
       <c r="C66" t="n">
-        <v>1.638040747016868e-24</v>
+        <v>1.537611036330839e-24</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.814591803458816</v>
       </c>
       <c r="C67" t="n">
-        <v>1.738917233942979e-24</v>
+        <v>1.636305225236268e-24</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.815509010941681</v>
       </c>
       <c r="C68" t="n">
-        <v>1.848546376191123e-24</v>
+        <v>1.742677713965766e-24</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.816426218424546</v>
       </c>
       <c r="C69" t="n">
-        <v>1.969296478488569e-24</v>
+        <v>1.859193383892287e-24</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.817343425907411</v>
       </c>
       <c r="C70" t="n">
-        <v>2.104613937535497e-24</v>
+        <v>1.989491611909464e-24</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.818260633390276</v>
       </c>
       <c r="C71" t="n">
-        <v>2.257960307656867e-24</v>
+        <v>2.137228287938438e-24</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.819177840873141</v>
       </c>
       <c r="C72" t="n">
-        <v>2.432797143177639e-24</v>
+        <v>2.306059301900351e-24</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.820095048356006</v>
       </c>
       <c r="C73" t="n">
-        <v>2.632585998422771e-24</v>
+        <v>2.499640543716343e-24</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.821012255838871</v>
       </c>
       <c r="C74" t="n">
-        <v>2.860788427717223e-24</v>
+        <v>2.721627903307557e-24</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.821929463321736</v>
       </c>
       <c r="C75" t="n">
-        <v>3.120865985385954e-24</v>
+        <v>2.975677270595132e-24</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.8228466708046</v>
       </c>
       <c r="C76" t="n">
-        <v>3.416280225753923e-24</v>
+        <v>3.265444535500209e-24</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.823763878287465</v>
       </c>
       <c r="C77" t="n">
-        <v>3.75049270314609e-24</v>
+        <v>3.594585587943933e-24</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.82468108577033</v>
       </c>
       <c r="C78" t="n">
-        <v>4.126964971887413e-24</v>
+        <v>3.966756317847441e-24</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.825598293253195</v>
       </c>
       <c r="C79" t="n">
-        <v>4.549158586302852e-24</v>
+        <v>4.385612615131877e-24</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.82651550073606</v>
       </c>
       <c r="C80" t="n">
-        <v>5.020535100717366e-24</v>
+        <v>4.854810369718382e-24</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.827432708218925</v>
       </c>
       <c r="C81" t="n">
-        <v>5.544556069455913e-24</v>
+        <v>5.378005471528094e-24</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.82834991570179</v>
       </c>
       <c r="C82" t="n">
-        <v>6.123767764067634e-24</v>
+        <v>5.95791910235287e-24</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.829267123184655</v>
       </c>
       <c r="C83" t="n">
-        <v>6.750363587925682e-24</v>
+        <v>6.586699853413469e-24</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.83018433066752</v>
       </c>
       <c r="C84" t="n">
-        <v>7.4099916096778e-24</v>
+        <v>7.249812067370136e-24</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.831101538150385</v>
       </c>
       <c r="C85" t="n">
-        <v>8.088196671606236e-24</v>
+        <v>7.932614669709826e-24</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.83201874563325</v>
       </c>
       <c r="C86" t="n">
-        <v>8.770523615992919e-24</v>
+        <v>8.620466585919169e-24</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.832935953116114</v>
       </c>
       <c r="C87" t="n">
-        <v>9.442517285120762e-24</v>
+        <v>9.298726741485799e-24</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.833853160598979</v>
       </c>
       <c r="C88" t="n">
-        <v>1.008972252127169e-23</v>
+        <v>9.952754061896337e-24</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.834770368081844</v>
       </c>
       <c r="C89" t="n">
-        <v>1.069768416672794e-23</v>
+        <v>1.056790747263774e-23</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.835687575564709</v>
       </c>
       <c r="C90" t="n">
-        <v>1.125194706377177e-23</v>
+        <v>1.112954589919697e-23</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.836604783047574</v>
       </c>
       <c r="C91" t="n">
-        <v>1.173805605468544e-23</v>
+        <v>1.162302826706099e-23</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.837521990530439</v>
       </c>
       <c r="C92" t="n">
-        <v>1.214155598175119e-23</v>
+        <v>1.203371350171675e-23</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.838439198013304</v>
       </c>
       <c r="C93" t="n">
-        <v>1.244799168725127e-23</v>
+        <v>1.234696052865121e-23</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.839356405496169</v>
       </c>
       <c r="C94" t="n">
-        <v>1.264290801346794e-23</v>
+        <v>1.254812827335134e-23</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.840273612979034</v>
       </c>
       <c r="C95" t="n">
-        <v>1.271184980268344e-23</v>
+        <v>1.262257566130409e-23</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.841190820461899</v>
       </c>
       <c r="C96" t="n">
-        <v>1.264176530919805e-23</v>
+        <v>1.255707876261938e-23</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.842108027944764</v>
       </c>
       <c r="C97" t="n">
-        <v>1.24363742773358e-23</v>
+        <v>1.235534924907009e-23</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.843025235427629</v>
       </c>
       <c r="C98" t="n">
-        <v>1.211043771160393e-23</v>
+        <v>1.203224809306097e-23</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.843942442910494</v>
       </c>
       <c r="C99" t="n">
-        <v>1.16789108235522e-23</v>
+        <v>1.160283237438547e-23</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.844859650393359</v>
       </c>
       <c r="C100" t="n">
-        <v>1.115674882473043e-23</v>
+        <v>1.108215917283702e-23</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.845776857876224</v>
       </c>
       <c r="C101" t="n">
-        <v>1.055890692668838e-23</v>
+        <v>1.048528556820909e-23</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.846694065359089</v>
       </c>
       <c r="C102" t="n">
-        <v>9.900340340975851e-24</v>
+        <v>9.827268640295104e-24</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.847611272841954</v>
       </c>
       <c r="C103" t="n">
-        <v>9.196004279142631e-24</v>
+        <v>9.123165468888514e-24</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.848528480324818</v>
       </c>
       <c r="C104" t="n">
-        <v>8.460853952738865e-24</v>
+        <v>8.388033133783129e-24</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.849445687807683</v>
       </c>
       <c r="C105" t="n">
-        <v>7.709844573313623e-24</v>
+        <v>7.63692871477167e-24</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.850362895290548</v>
       </c>
       <c r="C106" t="n">
-        <v>6.957931352417042e-24</v>
+        <v>6.884909291647938e-24</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.851280102773413</v>
       </c>
       <c r="C107" t="n">
-        <v>6.220069501598913e-24</v>
+        <v>6.147031944205372e-24</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.852197310256278</v>
       </c>
       <c r="C108" t="n">
-        <v>5.51121423240902e-24</v>
+        <v>5.438353752237418e-24</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.853114517739143</v>
       </c>
       <c r="C109" t="n">
-        <v>4.846320756397155e-24</v>
+        <v>4.773931795537525e-24</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.854031725222008</v>
       </c>
       <c r="C110" t="n">
-        <v>4.240344285113101e-24</v>
+        <v>4.168823153899132e-24</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.854948932704873</v>
       </c>
       <c r="C111" t="n">
-        <v>3.707153847562582e-24</v>
+        <v>3.636974891123602e-24</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.855866140187738</v>
       </c>
       <c r="C112" t="n">
-        <v>3.245362427089494e-24</v>
+        <v>3.176743271147999e-24</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.856783347670603</v>
       </c>
       <c r="C113" t="n">
-        <v>2.842328520058602e-24</v>
+        <v>2.774983120514898e-24</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.857700555153468</v>
       </c>
       <c r="C114" t="n">
-        <v>2.485148041347415e-24</v>
+        <v>2.418280922612521e-24</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.858617762636332</v>
       </c>
       <c r="C115" t="n">
-        <v>2.162328905591869e-24</v>
+        <v>2.09474594175692e-24</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.859534970119197</v>
       </c>
       <c r="C116" t="n">
-        <v>1.870529014306958e-24</v>
+        <v>1.801276852111704e-24</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.860452177602062</v>
       </c>
       <c r="C117" t="n">
-        <v>1.609324000436824e-24</v>
+        <v>1.537918975526726e-24</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.861369385084927</v>
       </c>
       <c r="C118" t="n">
-        <v>1.378293202201942e-24</v>
+        <v>1.30472162983279e-24</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.862286592567792</v>
       </c>
       <c r="C119" t="n">
-        <v>1.177007118334724e-24</v>
+        <v>1.101722802739273e-24</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.863203800050657</v>
       </c>
       <c r="C120" t="n">
-        <v>1.004355119176866e-24</v>
+        <v>9.280874373497577e-25</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.864121007533522</v>
       </c>
       <c r="C121" t="n">
-        <v>8.580735871555166e-25</v>
+        <v>7.815026204736729e-25</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.865038215016387</v>
       </c>
       <c r="C122" t="n">
-        <v>7.35787417362167e-25</v>
+        <v>6.595125386708953e-25</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.865955422499252</v>
       </c>
       <c r="C123" t="n">
-        <v>6.351215048883508e-25</v>
+        <v>5.59661378501345e-25</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.866872629982117</v>
       </c>
       <c r="C124" t="n">
-        <v>5.537007448254626e-25</v>
+        <v>4.794933265248027e-25</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.867789837464982</v>
       </c>
       <c r="C125" t="n">
-        <v>4.891500322650459e-25</v>
+        <v>4.165525693011985e-25</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.868707044947846</v>
       </c>
       <c r="C126" t="n">
-        <v>4.390942622985917e-25</v>
+        <v>3.683832933904091e-25</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.869624252430711</v>
       </c>
       <c r="C127" t="n">
-        <v>4.011583300175906e-25</v>
+        <v>3.32529685352311e-25</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.870541459913576</v>
       </c>
       <c r="C128" t="n">
-        <v>3.729671305135326e-25</v>
+        <v>3.065359317467806e-25</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.871458667396441</v>
       </c>
       <c r="C129" t="n">
-        <v>3.521455588779086e-25</v>
+        <v>2.879462191336944e-25</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.872375874879306</v>
       </c>
       <c r="C130" t="n">
-        <v>3.363185102022088e-25</v>
+        <v>2.743047340729293e-25</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.873293082362171</v>
       </c>
       <c r="C131" t="n">
-        <v>3.231108795779239e-25</v>
+        <v>2.631556631243615e-25</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.874210289845036</v>
       </c>
       <c r="C132" t="n">
-        <v>3.101475620965441e-25</v>
+        <v>2.520431928478677e-25</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.875127497327901</v>
       </c>
       <c r="C133" t="n">
-        <v>2.950542084333454e-25</v>
+        <v>2.385123255484622e-25</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.876044704810766</v>
       </c>
       <c r="C134" t="n">
-        <v>2.765019183063271e-25</v>
+        <v>2.212367536779526e-25</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.876961912293631</v>
       </c>
       <c r="C135" t="n">
-        <v>2.562820102698121e-25</v>
+        <v>2.022588276642641e-25</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.877879119776496</v>
       </c>
       <c r="C136" t="n">
-        <v>2.36765356276344e-25</v>
+        <v>1.842465967340006e-25</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.878796327259361</v>
       </c>
       <c r="C137" t="n">
-        <v>2.203228282784663e-25</v>
+        <v>1.698681101137664e-25</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.879713534742226</v>
       </c>
       <c r="C138" t="n">
-        <v>2.092517782543417e-25</v>
+        <v>1.617031207484855e-25</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.880630742225091</v>
       </c>
       <c r="C139" t="n">
-        <v>2.043088193711686e-25</v>
+        <v>1.604809795774586e-25</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.881547949707956</v>
       </c>
       <c r="C140" t="n">
-        <v>2.047889309039751e-25</v>
+        <v>1.651756392425504e-25</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.88246515719082</v>
       </c>
       <c r="C141" t="n">
-        <v>2.099294069163514e-25</v>
+        <v>1.746917733941564e-25</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.883382364673685</v>
       </c>
       <c r="C142" t="n">
-        <v>2.189675414718964e-25</v>
+        <v>1.87934055682687e-25</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.88429957215655</v>
       </c>
       <c r="C143" t="n">
-        <v>2.311406286342024e-25</v>
+        <v>2.038071597585395e-25</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.885216779639415</v>
       </c>
       <c r="C144" t="n">
-        <v>2.456859624668631e-25</v>
+        <v>2.212157592721149e-25</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.88613398712228</v>
       </c>
       <c r="C145" t="n">
-        <v>2.618408370334722e-25</v>
+        <v>2.39064527873814e-25</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.887051194605145</v>
       </c>
       <c r="C146" t="n">
-        <v>2.788425463976235e-25</v>
+        <v>2.562581392140378e-25</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.88796840208801</v>
       </c>
       <c r="C147" t="n">
-        <v>2.959285044171092e-25</v>
+        <v>2.717014649471456e-25</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.888885609570875</v>
       </c>
       <c r="C148" t="n">
-        <v>3.125988336278371e-25</v>
+        <v>2.847335994086142e-25</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.88980281705374</v>
       </c>
       <c r="C149" t="n">
-        <v>3.2917340826856e-25</v>
+        <v>2.960485780223315e-25</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.890720024536605</v>
       </c>
       <c r="C150" t="n">
-        <v>3.461315486567224e-25</v>
+        <v>3.066039794810253e-25</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.89163723201947</v>
       </c>
       <c r="C151" t="n">
-        <v>3.63952575109769e-25</v>
+        <v>3.173573824774239e-25</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.892554439502335</v>
       </c>
       <c r="C152" t="n">
-        <v>3.831158079451442e-25</v>
+        <v>3.292663657042552e-25</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.8934716469852</v>
       </c>
       <c r="C153" t="n">
-        <v>4.041005674802927e-25</v>
+        <v>3.432885078542476e-25</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.894388854468064</v>
       </c>
       <c r="C154" t="n">
-        <v>4.273861740326589e-25</v>
+        <v>3.603813876201289e-25</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.895306061950929</v>
       </c>
       <c r="C155" t="n">
-        <v>4.534519479196873e-25</v>
+        <v>3.815025836946273e-25</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.896223269433794</v>
       </c>
       <c r="C156" t="n">
-        <v>4.827772094588227e-25</v>
+        <v>4.076096747704707e-25</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.897140476916659</v>
       </c>
       <c r="C157" t="n">
-        <v>5.159177804718623e-25</v>
+        <v>4.396620160390104e-25</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.898057684399524</v>
       </c>
       <c r="C158" t="n">
-        <v>5.53938064781541e-25</v>
+        <v>4.786307728544398e-25</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.898974891882389</v>
       </c>
       <c r="C159" t="n">
-        <v>5.981099382903979e-25</v>
+        <v>5.254919284352181e-25</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.899892099365254</v>
       </c>
       <c r="C160" t="n">
-        <v>6.497058889130066e-25</v>
+        <v>5.812214802117926e-25</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.900809306848119</v>
       </c>
       <c r="C161" t="n">
-        <v>7.0999840456391e-25</v>
+        <v>6.46795425614577e-25</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.901726514330984</v>
       </c>
       <c r="C162" t="n">
-        <v>7.802599731577402e-25</v>
+        <v>7.231897620740823e-25</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.902643721813849</v>
       </c>
       <c r="C163" t="n">
-        <v>8.617630826090437e-25</v>
+        <v>8.113804870207264e-25</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.903560929296713</v>
       </c>
       <c r="C164" t="n">
-        <v>9.557802208323946e-25</v>
+        <v>9.123435978849571e-25</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.904478136779578</v>
       </c>
       <c r="C165" t="n">
-        <v>1.063583875742367e-24</v>
+        <v>1.027055092097222e-24</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.905395344262443</v>
       </c>
       <c r="C166" t="n">
-        <v>1.186446535253536e-24</v>
+        <v>1.15649096708797e-24</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.906312551745308</v>
       </c>
       <c r="C167" t="n">
-        <v>1.325640687280473e-24</v>
+        <v>1.301627220287647e-24</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.907229759228173</v>
       </c>
       <c r="C168" t="n">
-        <v>1.482438819737754e-24</v>
+        <v>1.463439849126702e-24</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.908146966711038</v>
       </c>
       <c r="C169" t="n">
-        <v>1.658113420539953e-24</v>
+        <v>1.642904851035582e-24</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.909064174193903</v>
       </c>
       <c r="C170" t="n">
-        <v>1.853935766742866e-24</v>
+        <v>1.840997105686395e-24</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.909981381676768</v>
       </c>
       <c r="C171" t="n">
-        <v>2.069501753830886e-24</v>
+        <v>2.057144927818275e-24</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.910898589159633</v>
       </c>
       <c r="C172" t="n">
-        <v>2.299406978925223e-24</v>
+        <v>2.286160796449764e-24</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.911815796642498</v>
       </c>
       <c r="C173" t="n">
-        <v>2.537318277396542e-24</v>
+        <v>2.52199983942699e-24</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.912733004125363</v>
       </c>
       <c r="C174" t="n">
-        <v>2.776902484615508e-24</v>
+        <v>2.758617184596084e-24</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.913650211608228</v>
       </c>
       <c r="C175" t="n">
-        <v>3.011826435952787e-24</v>
+        <v>2.989967959803178e-24</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.914567419091093</v>
       </c>
       <c r="C176" t="n">
-        <v>3.235756966779047e-24</v>
+        <v>3.210007292894402e-24</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.915484626573958</v>
       </c>
       <c r="C177" t="n">
-        <v>3.442360912464952e-24</v>
+        <v>3.412690311715886e-24</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.916401834056822</v>
       </c>
       <c r="C178" t="n">
-        <v>3.625305108381087e-24</v>
+        <v>3.591972144113681e-24</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.917319041539687</v>
       </c>
       <c r="C179" t="n">
-        <v>3.778256389898295e-24</v>
+        <v>3.741807917934092e-24</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.918236249022552</v>
       </c>
       <c r="C180" t="n">
-        <v>3.894962886672468e-24</v>
+        <v>3.856230172914063e-24</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.919153456505417</v>
       </c>
       <c r="C181" t="n">
-        <v>3.972712032023638e-24</v>
+        <v>3.932641724918282e-24</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.920070663988282</v>
       </c>
       <c r="C182" t="n">
-        <v>4.013621059065041e-24</v>
+        <v>3.973044531475856e-24</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.920987871471147</v>
       </c>
       <c r="C183" t="n">
-        <v>4.020154439055815e-24</v>
+        <v>3.979771205110445e-24</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.921905078954012</v>
       </c>
       <c r="C184" t="n">
-        <v>3.9947766432551e-24</v>
+        <v>3.955154358345708e-24</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.922822286436877</v>
       </c>
       <c r="C185" t="n">
-        <v>3.939952142922034e-24</v>
+        <v>3.901526603705303e-24</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.923739493919742</v>
       </c>
       <c r="C186" t="n">
-        <v>3.858145409315756e-24</v>
+        <v>3.821220553712886e-24</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.924656701402607</v>
       </c>
       <c r="C187" t="n">
-        <v>3.751820913695403e-24</v>
+        <v>3.71656882089212e-24</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.925573908885472</v>
       </c>
       <c r="C188" t="n">
-        <v>3.623443127320115e-24</v>
+        <v>3.589904017766661e-24</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.926491116368337</v>
       </c>
       <c r="C189" t="n">
-        <v>3.475476923668905e-24</v>
+        <v>3.443559215716618e-24</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.927408323851202</v>
       </c>
       <c r="C190" t="n">
-        <v>3.310642777156838e-24</v>
+        <v>3.280159078223352e-24</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.928325531334067</v>
       </c>
       <c r="C191" t="n">
-        <v>3.132354547705308e-24</v>
+        <v>3.103119289880618e-24</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.929242738816932</v>
       </c>
       <c r="C192" t="n">
-        <v>2.944142542374943e-24</v>
+        <v>2.915988379341902e-24</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.930159946299796</v>
       </c>
       <c r="C193" t="n">
-        <v>2.749537068226376e-24</v>
+        <v>2.722314875260687e-24</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.931077153782661</v>
       </c>
       <c r="C194" t="n">
-        <v>2.552068432320243e-24</v>
+        <v>2.525647306290463e-24</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.931994361265526</v>
       </c>
       <c r="C195" t="n">
-        <v>2.355266941717175e-24</v>
+        <v>2.329534201084714e-24</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.932911568748391</v>
       </c>
       <c r="C196" t="n">
-        <v>2.162662903477805e-24</v>
+        <v>2.137524088296924e-24</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.933828776231256</v>
       </c>
       <c r="C197" t="n">
-        <v>1.977786624662765e-24</v>
+        <v>1.953165496580582e-24</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.934745983714121</v>
       </c>
       <c r="C198" t="n">
-        <v>1.804168412332769e-24</v>
+        <v>1.780006954589252e-24</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.935663191196986</v>
       </c>
       <c r="C199" t="n">
-        <v>1.644825455347268e-24</v>
+        <v>1.62108232615902e-24</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.936580398679851</v>
       </c>
       <c r="C200" t="n">
-        <v>1.499836158082225e-24</v>
+        <v>1.476477832699532e-24</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.937497606162716</v>
       </c>
       <c r="C201" t="n">
-        <v>1.368234510675734e-24</v>
+        <v>1.345232133359365e-24</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.938414813645581</v>
       </c>
       <c r="C202" t="n">
-        <v>1.249053250024549e-24</v>
+        <v>1.226382630268298e-24</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.939332021128445</v>
       </c>
       <c r="C203" t="n">
-        <v>1.141325113025422e-24</v>
+        <v>1.118966725556108e-24</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.94024922861131</v>
       </c>
       <c r="C204" t="n">
-        <v>1.044082836575107e-24</v>
+        <v>1.022021821352571e-24</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.941166436094175</v>
       </c>
       <c r="C205" t="n">
-        <v>9.56359157570356e-25</v>
+        <v>9.34585319787466e-25</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.94208364357704</v>
       </c>
       <c r="C206" t="n">
-        <v>8.77186812907923e-25</v>
+        <v>8.556946229905693e-25</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.943000851059905</v>
       </c>
       <c r="C207" t="n">
-        <v>8.055985394845602e-25</v>
+        <v>7.843871330916581e-25</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.94391805854277</v>
       </c>
       <c r="C208" t="n">
-        <v>7.406369242858773e-25</v>
+        <v>7.197100240794241e-25</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.944835266025635</v>
       </c>
       <c r="C209" t="n">
-        <v>6.81643289023564e-25</v>
+        <v>6.610068321011831e-25</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.9457524735085</v>
       </c>
       <c r="C210" t="n">
-        <v>6.283043241498179e-25</v>
+        <v>6.079637191074201e-25</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.946669680991365</v>
       </c>
       <c r="C211" t="n">
-        <v>5.803259585716338e-25</v>
+        <v>5.602859327105623e-25</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.94758688847423</v>
       </c>
       <c r="C212" t="n">
-        <v>5.374141211960059e-25</v>
+        <v>5.176787205230364e-25</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.948504095957095</v>
       </c>
       <c r="C213" t="n">
-        <v>4.992747409299288e-25</v>
+        <v>4.798473301572695e-25</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.94942130343996</v>
       </c>
       <c r="C214" t="n">
-        <v>4.656137466803969e-25</v>
+        <v>4.464970092256885e-25</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.950338510922824</v>
       </c>
       <c r="C215" t="n">
-        <v>4.361370673544181e-25</v>
+        <v>4.173330053407333e-25</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.951255718405689</v>
       </c>
       <c r="C216" t="n">
-        <v>4.105506318589585e-25</v>
+        <v>3.920605661148029e-25</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.952172925888554</v>
       </c>
       <c r="C217" t="n">
-        <v>3.885603691010274e-25</v>
+        <v>3.703849391603391e-25</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.953090133371419</v>
       </c>
       <c r="C218" t="n">
-        <v>3.698722079876198e-25</v>
+        <v>3.52011372089769e-25</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.954007340854284</v>
       </c>
       <c r="C219" t="n">
-        <v>3.541920774257299e-25</v>
+        <v>3.366451125155194e-25</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.954924548337149</v>
       </c>
       <c r="C220" t="n">
-        <v>3.412259063223521e-25</v>
+        <v>3.239914080500172e-25</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.955841755820014</v>
       </c>
       <c r="C221" t="n">
-        <v>3.306796235844812e-25</v>
+        <v>3.137555063056895e-25</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.956758963302879</v>
       </c>
       <c r="C222" t="n">
-        <v>3.222591581191113e-25</v>
+        <v>3.05642654894963e-25</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.957676170785744</v>
       </c>
       <c r="C223" t="n">
-        <v>3.156704388332371e-25</v>
+        <v>2.993581014302647e-25</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.958593378268609</v>
       </c>
       <c r="C224" t="n">
-        <v>3.106193946338531e-25</v>
+        <v>2.946070935240214e-25</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.959510585751474</v>
       </c>
       <c r="C225" t="n">
-        <v>3.068119544279536e-25</v>
+        <v>2.910948787886603e-25</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.960427793234339</v>
       </c>
       <c r="C226" t="n">
-        <v>3.039540471225332e-25</v>
+        <v>2.88526704836608e-25</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.961345000717204</v>
       </c>
       <c r="C227" t="n">
-        <v>3.017516016245863e-25</v>
+        <v>2.866078192802914e-25</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.962262208200069</v>
       </c>
       <c r="C228" t="n">
-        <v>2.999105468411074e-25</v>
+        <v>2.850434697321378e-25</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.963179415682934</v>
       </c>
       <c r="C229" t="n">
-        <v>2.98136811679091e-25</v>
+        <v>2.835389038045737e-25</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.964096623165799</v>
       </c>
       <c r="C230" t="n">
-        <v>2.961363250455316e-25</v>
+        <v>2.817993691100263e-25</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.965013830648664</v>
       </c>
       <c r="C231" t="n">
-        <v>2.936150158474235e-25</v>
+        <v>2.795301132609222e-25</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.965931038131528</v>
       </c>
       <c r="C232" t="n">
-        <v>2.902788129917614e-25</v>
+        <v>2.764363838696887e-25</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.966848245614393</v>
       </c>
       <c r="C233" t="n">
-        <v>2.858336453855397e-25</v>
+        <v>2.722234285487523e-25</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.967765453097258</v>
       </c>
       <c r="C234" t="n">
-        <v>2.799854419357527e-25</v>
+        <v>2.665964949105402e-25</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.968682660580123</v>
       </c>
       <c r="C235" t="n">
-        <v>2.724401315493992e-25</v>
+        <v>2.592608305674831e-25</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.969599868062988</v>
       </c>
       <c r="C236" t="n">
-        <v>2.629074861993766e-25</v>
+        <v>2.499255636728904e-25</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.970517075545853</v>
       </c>
       <c r="C237" t="n">
-        <v>2.513502989359962e-25</v>
+        <v>2.38555310747861e-25</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.971434283028718</v>
       </c>
       <c r="C238" t="n">
-        <v>2.381370216118399e-25</v>
+        <v>2.255243028259742e-25</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.972351490511583</v>
       </c>
       <c r="C239" t="n">
-        <v>2.23672625469094e-25</v>
+        <v>2.112436464427955e-25</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.973268697994448</v>
       </c>
       <c r="C240" t="n">
-        <v>2.08362081749945e-25</v>
+        <v>1.961244481338909e-25</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.974185905477313</v>
       </c>
       <c r="C241" t="n">
-        <v>1.926103616965793e-25</v>
+        <v>1.805778144348259e-25</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.975103112960177</v>
       </c>
       <c r="C242" t="n">
-        <v>1.768224365511832e-25</v>
+        <v>1.650148518811662e-25</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.976020320443042</v>
       </c>
       <c r="C243" t="n">
-        <v>1.614032775559434e-25</v>
+        <v>1.498466670084773e-25</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.976937527925907</v>
       </c>
       <c r="C244" t="n">
-        <v>1.46757855953046e-25</v>
+        <v>1.354843663523251e-25</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.977854735408772</v>
       </c>
       <c r="C245" t="n">
-        <v>1.332911429846776e-25</v>
+        <v>1.223390564482751e-25</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.978771942891637</v>
       </c>
       <c r="C246" t="n">
-        <v>1.214081098930246e-25</v>
+        <v>1.10821843831893e-25</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.979689150374502</v>
       </c>
       <c r="C247" t="n">
-        <v>1.115137279202734e-25</v>
+        <v>1.013438350387445e-25</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.980606357857367</v>
       </c>
       <c r="C248" t="n">
-        <v>1.040129683086104e-25</v>
+        <v>9.43161366043953e-26</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.981523565340232</v>
       </c>
       <c r="C249" t="n">
-        <v>9.931080230022196e-26</v>
+        <v>9.014985506441091e-26</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.982440772823097</v>
       </c>
       <c r="C250" t="n">
-        <v>9.780822801254253e-26</v>
+        <v>8.925202943002912e-26</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.983357980305962</v>
       </c>
       <c r="C251" t="n">
-        <v>9.961221740601743e-26</v>
+        <v>9.172868663226147e-26</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.984275187788826</v>
       </c>
       <c r="C252" t="n">
-        <v>1.043387555647989e-25</v>
+        <v>9.718320110851033e-26</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.985192395271691</v>
       </c>
       <c r="C253" t="n">
-        <v>1.11557185894421e-25</v>
+        <v>1.051711974332081e-25</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.986109602754556</v>
       </c>
       <c r="C254" t="n">
-        <v>1.208368518004116e-25</v>
+        <v>1.1524830018078e-25</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.987026810237421</v>
       </c>
       <c r="C255" t="n">
-        <v>1.317470966883e-25</v>
+        <v>1.269701339256528e-25</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.987944017720286</v>
       </c>
       <c r="C256" t="n">
-        <v>1.438572639636158e-25</v>
+        <v>1.398923232422537e-25</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.988861225203151</v>
       </c>
       <c r="C257" t="n">
-        <v>1.567366970318882e-25</v>
+        <v>1.535704927050097e-25</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.989778432686016</v>
       </c>
       <c r="C258" t="n">
-        <v>1.699547392986466e-25</v>
+        <v>1.675602668883476e-25</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.990695640168881</v>
       </c>
       <c r="C259" t="n">
-        <v>1.830807341694206e-25</v>
+        <v>1.814172703666948e-25</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.991612847651746</v>
       </c>
       <c r="C260" t="n">
-        <v>1.956840250497394e-25</v>
+        <v>1.94697127714478e-25</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.992530055134611</v>
       </c>
       <c r="C261" t="n">
-        <v>2.073339553451325e-25</v>
+        <v>2.069554635061242e-25</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.993447262617476</v>
       </c>
       <c r="C262" t="n">
-        <v>2.175998684611292e-25</v>
+        <v>2.177479023160605e-25</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.994364470100341</v>
       </c>
       <c r="C263" t="n">
-        <v>2.260511078032591e-25</v>
+        <v>2.266300687187141e-25</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.995281677583206</v>
       </c>
       <c r="C264" t="n">
-        <v>2.322680306763552e-25</v>
+        <v>2.331690108686342e-25</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.996198885066071</v>
       </c>
       <c r="C265" t="n">
-        <v>2.361135441326316e-25</v>
+        <v>2.372248365887728e-25</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.997116092548936</v>
       </c>
       <c r="C266" t="n">
-        <v>2.377503661459085e-25</v>
+        <v>2.389686166036017e-25</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.998033300031801</v>
       </c>
       <c r="C267" t="n">
-        <v>2.373556846298429e-25</v>
+        <v>2.385864298115862e-25</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.998950507514666</v>
       </c>
       <c r="C268" t="n">
-        <v>2.351066874980918e-25</v>
+        <v>2.362643551111913e-25</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.999867714997531</v>
       </c>
       <c r="C269" t="n">
-        <v>2.311805626643119e-25</v>
+        <v>2.321884714008816e-25</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>4.000784922480396</v>
       </c>
       <c r="C270" t="n">
-        <v>2.257544980421607e-25</v>
+        <v>2.265448575791226e-25</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>4.00170212996326</v>
       </c>
       <c r="C271" t="n">
-        <v>2.190056815452948e-25</v>
+        <v>2.19519592544379e-25</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>4.002619337446125</v>
       </c>
       <c r="C272" t="n">
-        <v>2.111113010873713e-25</v>
+        <v>2.11298755195116e-25</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>4.00353654492899</v>
       </c>
       <c r="C273" t="n">
-        <v>2.022485445820473e-25</v>
+        <v>2.020684244297986e-25</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>4.004453752411855</v>
       </c>
       <c r="C274" t="n">
-        <v>1.925945999429797e-25</v>
+        <v>1.920146791468917e-25</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>4.00537095989472</v>
       </c>
       <c r="C275" t="n">
-        <v>1.823266550838255e-25</v>
+        <v>1.813235982448604e-25</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>4.006288167377585</v>
       </c>
       <c r="C276" t="n">
-        <v>1.716218979182417e-25</v>
+        <v>1.701812606221697e-25</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>4.00720537486045</v>
       </c>
       <c r="C277" t="n">
-        <v>1.606575163598853e-25</v>
+        <v>1.587737451772847e-25</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>4.008122582343315</v>
       </c>
       <c r="C278" t="n">
-        <v>1.496106983224133e-25</v>
+        <v>1.472871308086703e-25</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>4.009039789826179</v>
       </c>
       <c r="C279" t="n">
-        <v>1.386586317194931e-25</v>
+        <v>1.359074964148024e-25</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>4.009956997309045</v>
       </c>
       <c r="C280" t="n">
-        <v>1.279785044647504e-25</v>
+        <v>1.248209208941135e-25</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>4.010874204791909</v>
       </c>
       <c r="C281" t="n">
-        <v>1.177475044718832e-25</v>
+        <v>1.142134831451111e-25</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>4.011791412274774</v>
       </c>
       <c r="C282" t="n">
-        <v>1.08142819654518e-25</v>
+        <v>1.042712620662287e-25</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>4.012708619757639</v>
       </c>
       <c r="C283" t="n">
-        <v>9.932910544773015e-26</v>
+        <v>9.516713499934719e-26</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>4.013625827240504</v>
       </c>
       <c r="C284" t="n">
-        <v>9.134025595739138e-26</v>
+        <v>8.693623693352981e-26</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>4.014543034723369</v>
       </c>
       <c r="C285" t="n">
-        <v>8.413239017134573e-26</v>
+        <v>7.953177551882421e-26</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>4.015460242206234</v>
       </c>
       <c r="C286" t="n">
-        <v>7.766059703892394e-26</v>
+        <v>7.290587337555862e-26</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>4.016377449689099</v>
       </c>
       <c r="C287" t="n">
-        <v>7.187996550945659e-26</v>
+        <v>6.701065312406128e-26</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>4.017294657171964</v>
       </c>
       <c r="C288" t="n">
-        <v>6.674558453227437e-26</v>
+        <v>6.179823738466039e-26</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>4.018211864654829</v>
       </c>
       <c r="C289" t="n">
-        <v>6.221254305670794e-26</v>
+        <v>5.722074877768422e-26</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>4.019129072137694</v>
       </c>
       <c r="C290" t="n">
-        <v>5.823593003208797e-26</v>
+        <v>5.323030992346098e-26</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>4.020046279620558</v>
       </c>
       <c r="C291" t="n">
-        <v>5.477083440774507e-26</v>
+        <v>4.977904344231893e-26</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>4.020963487103423</v>
       </c>
       <c r="C292" t="n">
-        <v>5.177234513300996e-26</v>
+        <v>4.681907195458628e-26</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>4.021880694586288</v>
       </c>
       <c r="C293" t="n">
-        <v>4.919555115721328e-26</v>
+        <v>4.430251808059128e-26</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>4.022797902069153</v>
       </c>
       <c r="C294" t="n">
-        <v>4.699554142968567e-26</v>
+        <v>4.218150444066215e-26</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>4.023715109552018</v>
       </c>
       <c r="C295" t="n">
-        <v>4.512740489975781e-26</v>
+        <v>4.040815365512714e-26</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>4.024632317034883</v>
       </c>
       <c r="C296" t="n">
-        <v>4.354623051676035e-26</v>
+        <v>3.893458834431447e-26</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>4.025549524517748</v>
       </c>
       <c r="C297" t="n">
-        <v>4.220710723002395e-26</v>
+        <v>3.771293112855238e-26</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>4.026466732000613</v>
       </c>
       <c r="C298" t="n">
-        <v>4.106512398887926e-26</v>
+        <v>3.669530462816911e-26</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>4.027383939483478</v>
       </c>
       <c r="C299" t="n">
-        <v>4.007536974265696e-26</v>
+        <v>3.583383146349287e-26</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>4.028301146966343</v>
       </c>
       <c r="C300" t="n">
-        <v>3.919293344068769e-26</v>
+        <v>3.508063425485193e-26</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>4.029218354449208</v>
       </c>
       <c r="C301" t="n">
-        <v>3.837296133796437e-26</v>
+        <v>3.438789675805315e-26</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>4.030135561932073</v>
       </c>
       <c r="C302" t="n">
-        <v>3.758323069732978e-26</v>
+        <v>3.372127788442172e-26</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>4.031052769414938</v>
       </c>
       <c r="C303" t="n">
-        <v>3.681994079899915e-26</v>
+        <v>3.307675804526036e-26</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>4.031969976897803</v>
       </c>
       <c r="C304" t="n">
-        <v>3.608317417083341e-26</v>
+        <v>3.245446042231134e-26</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>4.032887184380668</v>
       </c>
       <c r="C305" t="n">
-        <v>3.537301334069347e-26</v>
+        <v>3.185450819731689e-26</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>4.033804391863533</v>
       </c>
       <c r="C306" t="n">
-        <v>3.468954083644027e-26</v>
+        <v>3.127702455201926e-26</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>4.034721599346398</v>
       </c>
       <c r="C307" t="n">
-        <v>3.403283918593471e-26</v>
+        <v>3.07221326681607e-26</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>4.035638806829263</v>
       </c>
       <c r="C308" t="n">
-        <v>3.340299091703776e-26</v>
+        <v>3.018995572748344e-26</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>4.036556014312128</v>
       </c>
       <c r="C309" t="n">
-        <v>3.280007855761027e-26</v>
+        <v>2.968061691172973e-26</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>4.037473221794992</v>
       </c>
       <c r="C310" t="n">
-        <v>3.222418463551321e-26</v>
+        <v>2.919423940264182e-26</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>4.038390429277857</v>
       </c>
       <c r="C311" t="n">
-        <v>3.16753916786075e-26</v>
+        <v>2.873094638196196e-26</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>4.039307636760722</v>
       </c>
       <c r="C312" t="n">
-        <v>3.115378221475405e-26</v>
+        <v>2.829086103143237e-26</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>4.040224844243587</v>
       </c>
       <c r="C313" t="n">
-        <v>3.065943877181378e-26</v>
+        <v>2.787410653279531e-26</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>4.041142051726452</v>
       </c>
       <c r="C314" t="n">
-        <v>3.01924438776476e-26</v>
+        <v>2.748080606779302e-26</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>4.042059259209317</v>
       </c>
       <c r="C315" t="n">
-        <v>2.975288006011646e-26</v>
+        <v>2.711108281816775e-26</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>4.042976466692181</v>
       </c>
       <c r="C316" t="n">
-        <v>2.934082984708165e-26</v>
+        <v>2.676505996566206e-26</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>4.043893674175047</v>
       </c>
       <c r="C317" t="n">
-        <v>2.895637576640293e-26</v>
+        <v>2.644286069201723e-26</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>4.044810881657911</v>
       </c>
       <c r="C318" t="n">
-        <v>2.859960034594273e-26</v>
+        <v>2.614460817897675e-26</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>4.045728089140776</v>
       </c>
       <c r="C319" t="n">
-        <v>2.827058611356087e-26</v>
+        <v>2.587042560828196e-26</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>4.046645296623641</v>
       </c>
       <c r="C320" t="n">
-        <v>2.796941559711865e-26</v>
+        <v>2.562043616167541e-26</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>4.047562504106506</v>
       </c>
       <c r="C321" t="n">
-        <v>2.769617132447698e-26</v>
+        <v>2.539476302089933e-26</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>4.048479711589371</v>
       </c>
       <c r="C322" t="n">
-        <v>2.74509358234968e-26</v>
+        <v>2.519352936769599e-26</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>4.049396919072236</v>
       </c>
       <c r="C323" t="n">
-        <v>2.723379162203901e-26</v>
+        <v>2.501685838380761e-26</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>4.050314126555101</v>
       </c>
       <c r="C324" t="n">
-        <v>2.704482124796455e-26</v>
+        <v>2.486487325097644e-26</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>4.051231334037966</v>
       </c>
       <c r="C325" t="n">
-        <v>2.688410722913432e-26</v>
+        <v>2.473769715094473e-26</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>4.052148541520831</v>
       </c>
       <c r="C326" t="n">
-        <v>2.675173209340925e-26</v>
+        <v>2.463545326545472e-26</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>4.053065749003696</v>
       </c>
       <c r="C327" t="n">
-        <v>2.664777836865026e-26</v>
+        <v>2.455826477624864e-26</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>4.053982956486561</v>
       </c>
       <c r="C328" t="n">
-        <v>2.657232858271828e-26</v>
+        <v>2.450625486506877e-26</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>4.054900163969426</v>
       </c>
       <c r="C329" t="n">
-        <v>2.652546526347423e-26</v>
+        <v>2.447954671365732e-26</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>4.05581737145229</v>
       </c>
       <c r="C330" t="n">
-        <v>2.650727093877903e-26</v>
+        <v>2.447826350375656e-26</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>4.056734578935155</v>
       </c>
       <c r="C331" t="n">
-        <v>2.651782813649359e-26</v>
+        <v>2.450252841710871e-26</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>4.05765178641802</v>
       </c>
       <c r="C332" t="n">
-        <v>2.655721938447885e-26</v>
+        <v>2.455246463545603e-26</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>4.058568993900885</v>
       </c>
       <c r="C333" t="n">
-        <v>2.662552721059572e-26</v>
+        <v>2.462819534054076e-26</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>4.05948620138375</v>
       </c>
       <c r="C334" t="n">
-        <v>2.672283414270512e-26</v>
+        <v>2.472984371410514e-26</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>4.060403408866615</v>
       </c>
       <c r="C335" t="n">
-        <v>2.684922270866798e-26</v>
+        <v>2.485753293789141e-26</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>4.06132061634948</v>
       </c>
       <c r="C336" t="n">
-        <v>2.700477543634523e-26</v>
+        <v>2.501138619364183e-26</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>4.062237823832345</v>
       </c>
       <c r="C337" t="n">
-        <v>2.718957485359777e-26</v>
+        <v>2.519152666309864e-26</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>4.06315503131521</v>
       </c>
       <c r="C338" t="n">
-        <v>2.740370348828652e-26</v>
+        <v>2.539807752800407e-26</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>4.064072238798075</v>
       </c>
       <c r="C339" t="n">
-        <v>2.7648008042415e-26</v>
+        <v>2.563197649336864e-26</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>4.06498944628094</v>
       </c>
       <c r="C340" t="n">
-        <v>2.793045436738725e-26</v>
+        <v>2.590174947285052e-26</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>4.065906653763805</v>
       </c>
       <c r="C341" t="n">
-        <v>2.826288223048883e-26</v>
+        <v>2.622005153660375e-26</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>4.06682386124667</v>
       </c>
       <c r="C342" t="n">
-        <v>2.865717018278609e-26</v>
+        <v>2.659957909390928e-26</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>4.067741068729535</v>
       </c>
       <c r="C343" t="n">
-        <v>2.912519677534535e-26</v>
+        <v>2.705302855404806e-26</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>4.0686582762124</v>
       </c>
       <c r="C344" t="n">
-        <v>2.967884055923292e-26</v>
+        <v>2.759309632630105e-26</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>4.069575483695265</v>
       </c>
       <c r="C345" t="n">
-        <v>3.032998008551515e-26</v>
+        <v>2.823247881994918e-26</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>4.07049269117813</v>
       </c>
       <c r="C346" t="n">
-        <v>3.109049390525837e-26</v>
+        <v>2.898387244427342e-26</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>4.071409898660995</v>
       </c>
       <c r="C347" t="n">
-        <v>3.197226056952887e-26</v>
+        <v>2.985997360855471e-26</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>4.07232710614386</v>
       </c>
       <c r="C348" t="n">
-        <v>3.298715862939303e-26</v>
+        <v>3.087347872207402e-26</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>4.073244313626724</v>
       </c>
       <c r="C349" t="n">
-        <v>3.414706663591714e-26</v>
+        <v>3.203708419411228e-26</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>4.074161521109589</v>
       </c>
       <c r="C350" t="n">
-        <v>3.546386314016755e-26</v>
+        <v>3.336348643395044e-26</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>4.075078728592454</v>
       </c>
       <c r="C351" t="n">
-        <v>3.694942669321057e-26</v>
+        <v>3.486538185086948e-26</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>4.075995936075319</v>
       </c>
       <c r="C352" t="n">
-        <v>3.861563584611254e-26</v>
+        <v>3.65554668541503e-26</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>4.076913143558183</v>
       </c>
       <c r="C353" t="n">
-        <v>4.04743691499379e-26</v>
+        <v>3.844643785307197e-26</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>4.077830351041049</v>
       </c>
       <c r="C354" t="n">
-        <v>4.253750515575865e-26</v>
+        <v>4.055099125692121e-26</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>4.078747558523913</v>
       </c>
       <c r="C355" t="n">
-        <v>4.481692241463312e-26</v>
+        <v>4.288182347497082e-26</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>4.079664766006778</v>
       </c>
       <c r="C356" t="n">
-        <v>4.732449947763394e-26</v>
+        <v>4.545163091650817e-26</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>4.080581973489643</v>
       </c>
       <c r="C357" t="n">
-        <v>5.007211489582533e-26</v>
+        <v>4.827310999081208e-26</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>4.081499180972508</v>
       </c>
       <c r="C358" t="n">
-        <v>5.307164722027363e-26</v>
+        <v>5.135895710716348e-26</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>4.082416388455373</v>
       </c>
       <c r="C359" t="n">
-        <v>5.633497500204516e-26</v>
+        <v>5.472186867484335e-26</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>4.083333595938238</v>
       </c>
       <c r="C360" t="n">
-        <v>5.987397679220625e-26</v>
+        <v>5.837454110313262e-26</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>4.084250803421103</v>
       </c>
       <c r="C361" t="n">
-        <v>6.370053114182323e-26</v>
+        <v>6.232967080131224e-26</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>4.085168010903968</v>
       </c>
       <c r="C362" t="n">
-        <v>6.782640475795495e-26</v>
+        <v>6.659983665983333e-26</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>4.086085218386833</v>
       </c>
       <c r="C363" t="n">
-        <v>7.223415230275932e-26</v>
+        <v>7.116692334232493e-26</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>4.087002425869698</v>
       </c>
       <c r="C364" t="n">
-        <v>7.683821815820786e-26</v>
+        <v>7.59412494034344e-26</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>4.087919633352563</v>
       </c>
       <c r="C365" t="n">
-        <v>8.154335831418068e-26</v>
+        <v>8.082295342905314e-26</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>4.088836840835428</v>
       </c>
       <c r="C366" t="n">
-        <v>8.625432876055814e-26</v>
+        <v>8.571217400507255e-26</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>4.089754048318293</v>
       </c>
       <c r="C367" t="n">
-        <v>9.087588548722038e-26</v>
+        <v>9.050904971738406e-26</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>4.090671255801158</v>
       </c>
       <c r="C368" t="n">
-        <v>9.531278448404759e-26</v>
+        <v>9.511371915187894e-26</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>4.091588463284022</v>
       </c>
       <c r="C369" t="n">
-        <v>9.946978174092e-26</v>
+        <v>9.942632089444867e-26</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>4.092505670766887</v>
       </c>
       <c r="C370" t="n">
-        <v>1.032516332477179e-25</v>
+        <v>1.033469935309846e-25</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>4.093422878249752</v>
       </c>
       <c r="C371" t="n">
-        <v>1.065630949943214e-25</v>
+        <v>1.067758756473782e-25</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>4.094340085732617</v>
       </c>
       <c r="C372" t="n">
-        <v>1.093089229706108e-25</v>
+        <v>1.096131058295207e-25</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>4.095257293215482</v>
       </c>
       <c r="C373" t="n">
-        <v>1.113938731664662e-25</v>
+        <v>1.117588226633036e-25</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>4.096174500698347</v>
       </c>
       <c r="C374" t="n">
-        <v>1.127227015717679e-25</v>
+        <v>1.131131647346182e-25</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>4.097091708181212</v>
       </c>
       <c r="C375" t="n">
-        <v>1.132001641763961e-25</v>
+        <v>1.13576270629356e-25</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>4.098008915664077</v>
       </c>
       <c r="C376" t="n">
-        <v>1.12732797092298e-25</v>
+        <v>1.13050163873105e-25</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>4.098926123146942</v>
       </c>
       <c r="C377" t="n">
-        <v>1.113183525690969e-25</v>
+        <v>1.115334551424604e-25</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>4.099843330629807</v>
       </c>
       <c r="C378" t="n">
-        <v>1.090876648767871e-25</v>
+        <v>1.091656733059653e-25</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>4.100760538112672</v>
       </c>
       <c r="C379" t="n">
-        <v>1.06182097912366e-25</v>
+        <v>1.060974968675163e-25</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>4.101677745595537</v>
       </c>
       <c r="C380" t="n">
-        <v>1.027430155728311e-25</v>
+        <v>1.024796043310099e-25</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>4.102594953078402</v>
       </c>
       <c r="C381" t="n">
-        <v>9.891178175517997e-26</v>
+        <v>9.846267420034255e-26</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>4.103512160561267</v>
       </c>
       <c r="C382" t="n">
-        <v>9.482976035641014e-26</v>
+        <v>9.41973849794109e-26</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>4.104429368044132</v>
       </c>
       <c r="C383" t="n">
-        <v>9.063831527351915e-26</v>
+        <v>8.983441517211144e-26</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>4.105346575526997</v>
       </c>
       <c r="C384" t="n">
-        <v>8.64788104035045e-26</v>
+        <v>8.552444328234071e-26</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>4.106263783009862</v>
       </c>
       <c r="C385" t="n">
-        <v>8.249260964336371e-26</v>
+        <v>8.141814781399521e-26</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>4.107180990492727</v>
       </c>
       <c r="C386" t="n">
-        <v>7.880583840598993e-26</v>
+        <v>7.76497537287899e-26</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>4.108098197975592</v>
       </c>
       <c r="C387" t="n">
-        <v>7.544086853124133e-26</v>
+        <v>7.42414595047862e-26</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>4.109015405458456</v>
       </c>
       <c r="C388" t="n">
-        <v>7.237682604482867e-26</v>
+        <v>7.11687695511095e-26</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>4.109932612941321</v>
       </c>
       <c r="C389" t="n">
-        <v>6.959269380452122e-26</v>
+        <v>6.840703369328294e-26</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>4.110849820424186</v>
       </c>
       <c r="C390" t="n">
-        <v>6.706745466808824e-26</v>
+        <v>6.593160175682969e-26</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>4.111767027907051</v>
       </c>
       <c r="C391" t="n">
-        <v>6.478009149329898e-26</v>
+        <v>6.371782356727293e-26</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>4.112684235389915</v>
       </c>
       <c r="C392" t="n">
-        <v>6.270958713792466e-26</v>
+        <v>6.174104895013764e-26</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>4.11360144287278</v>
       </c>
       <c r="C393" t="n">
-        <v>6.083492445973056e-26</v>
+        <v>5.99766277309432e-26</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>4.114518650355645</v>
       </c>
       <c r="C394" t="n">
-        <v>5.913508631648799e-26</v>
+        <v>5.839990973521477e-26</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>4.11543585783851</v>
       </c>
       <c r="C395" t="n">
-        <v>5.758905556596631e-26</v>
+        <v>5.698624478847558e-26</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>4.116353065321375</v>
       </c>
       <c r="C396" t="n">
-        <v>5.617581506593474e-26</v>
+        <v>5.571098271624877e-26</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>4.11727027280424</v>
       </c>
       <c r="C397" t="n">
-        <v>5.487434767416255e-26</v>
+        <v>5.454947334405751e-26</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>4.118187480287105</v>
       </c>
       <c r="C398" t="n">
-        <v>5.366363624841902e-26</v>
+        <v>5.347706649742499e-26</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>4.11910468776997</v>
       </c>
       <c r="C399" t="n">
-        <v>5.252266364647342e-26</v>
+        <v>5.246911200187438e-26</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>4.120021895252835</v>
       </c>
       <c r="C400" t="n">
-        <v>5.143041272609503e-26</v>
+        <v>5.150095968292883e-26</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>4.1209391027357</v>
       </c>
       <c r="C401" t="n">
-        <v>5.036586634505311e-26</v>
+        <v>5.054795936611155e-26</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>4.121856310218565</v>
       </c>
       <c r="C402" t="n">
-        <v>4.930800736111693e-26</v>
+        <v>4.958546087694569e-26</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>4.12277351770143</v>
       </c>
       <c r="C403" t="n">
-        <v>4.823581863205577e-26</v>
+        <v>4.858881404095444e-26</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>4.123690725184295</v>
       </c>
       <c r="C404" t="n">
-        <v>4.712868607236136e-26</v>
+        <v>4.75338419817566e-26</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>4.12460793266716</v>
       </c>
       <c r="C405" t="n">
-        <v>4.598002387752385e-26</v>
+        <v>4.641284083610095e-26</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>4.125525140150025</v>
       </c>
       <c r="C406" t="n">
-        <v>4.480057342164181e-26</v>
+        <v>4.523845355591311e-26</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>4.12644234763289</v>
       </c>
       <c r="C407" t="n">
-        <v>4.360214815441684e-26</v>
+        <v>4.402458200114077e-26</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>4.127359555115754</v>
       </c>
       <c r="C408" t="n">
-        <v>4.239656152555053e-26</v>
+        <v>4.278512803173163e-26</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>4.128276762598619</v>
       </c>
       <c r="C409" t="n">
-        <v>4.119562698474449e-26</v>
+        <v>4.153399350763338e-26</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>4.129193970081484</v>
       </c>
       <c r="C410" t="n">
-        <v>4.00111579817003e-26</v>
+        <v>4.028508028879372e-26</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>4.130111177564349</v>
       </c>
       <c r="C411" t="n">
-        <v>3.885496796611958e-26</v>
+        <v>3.905229023516034e-26</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>4.131028385047214</v>
       </c>
       <c r="C412" t="n">
-        <v>3.773887038770391e-26</v>
+        <v>3.784952520668093e-26</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>4.131945592530079</v>
       </c>
       <c r="C413" t="n">
-        <v>3.66746786961549e-26</v>
+        <v>3.66906870633032e-26</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>4.132862800012944</v>
       </c>
       <c r="C414" t="n">
-        <v>3.567420634117413e-26</v>
+        <v>3.558967766497482e-26</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>4.133780007495809</v>
       </c>
       <c r="C415" t="n">
-        <v>3.474926677246323e-26</v>
+        <v>3.45603988716435e-26</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>4.134697214978674</v>
       </c>
       <c r="C416" t="n">
-        <v>3.390909778047065e-26</v>
+        <v>3.361412762390506e-26</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>4.135614422461539</v>
       </c>
       <c r="C417" t="n">
-        <v>3.315009443860125e-26</v>
+        <v>3.274905252527902e-26</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>4.136531629944404</v>
       </c>
       <c r="C418" t="n">
-        <v>3.246465693104789e-26</v>
+        <v>3.195929088686205e-26</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>4.137448837427269</v>
       </c>
       <c r="C419" t="n">
-        <v>3.184518417118298e-26</v>
+        <v>3.123895872462557e-26</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>4.138366044910134</v>
       </c>
       <c r="C420" t="n">
-        <v>3.128407507237885e-26</v>
+        <v>3.058217205454096e-26</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.139283252392999</v>
       </c>
       <c r="C421" t="n">
-        <v>3.077372854800789e-26</v>
+        <v>2.998304689257966e-26</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.140200459875864</v>
       </c>
       <c r="C422" t="n">
-        <v>3.030654351144245e-26</v>
+        <v>2.943569925471308e-26</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.141117667358729</v>
       </c>
       <c r="C423" t="n">
-        <v>2.987509463655046e-26</v>
+        <v>2.893436020379577e-26</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.142034874841594</v>
       </c>
       <c r="C424" t="n">
-        <v>2.947525129278542e-26</v>
+        <v>2.847541739911743e-26</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.142952082324459</v>
       </c>
       <c r="C425" t="n">
-        <v>2.910580893636931e-26</v>
+        <v>2.805717381752276e-26</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.143869289807323</v>
       </c>
       <c r="C426" t="n">
-        <v>2.876566473677384e-26</v>
+        <v>2.767799901391386e-26</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.144786497290188</v>
       </c>
       <c r="C427" t="n">
-        <v>2.845371586347075e-26</v>
+        <v>2.733626254319286e-26</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.145703704773053</v>
       </c>
       <c r="C428" t="n">
-        <v>2.816885948593177e-26</v>
+        <v>2.703033396026187e-26</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.146620912255917</v>
       </c>
       <c r="C429" t="n">
-        <v>2.790999277362886e-26</v>
+        <v>2.675858282002325e-26</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.147538119738782</v>
       </c>
       <c r="C430" t="n">
-        <v>2.767601289603324e-26</v>
+        <v>2.651937867737859e-26</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.148455327221647</v>
       </c>
       <c r="C431" t="n">
-        <v>2.746581702261693e-26</v>
+        <v>2.631109108723028e-26</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.149372534704512</v>
       </c>
       <c r="C432" t="n">
-        <v>2.727830232285162e-26</v>
+        <v>2.613208960448043e-26</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.150289742187377</v>
       </c>
       <c r="C433" t="n">
-        <v>2.711236596620906e-26</v>
+        <v>2.598074378403116e-26</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.151206949670242</v>
       </c>
       <c r="C434" t="n">
-        <v>2.696690512216097e-26</v>
+        <v>2.585542318078458e-26</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.152124157153107</v>
       </c>
       <c r="C435" t="n">
-        <v>2.684081696017907e-26</v>
+        <v>2.575449734964281e-26</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.153041364635972</v>
       </c>
       <c r="C436" t="n">
-        <v>2.673299864973509e-26</v>
+        <v>2.567633584550796e-26</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.153958572118837</v>
       </c>
       <c r="C437" t="n">
-        <v>2.664234736030078e-26</v>
+        <v>2.561930822328214e-26</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.154875779601702</v>
       </c>
       <c r="C438" t="n">
-        <v>2.656776026134783e-26</v>
+        <v>2.558178403786745e-26</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.155792987084567</v>
       </c>
       <c r="C439" t="n">
-        <v>2.650813452234798e-26</v>
+        <v>2.556213284416603e-26</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.156710194567432</v>
       </c>
       <c r="C440" t="n">
-        <v>2.646236731277298e-26</v>
+        <v>2.555872419707998e-26</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.157627402050297</v>
       </c>
       <c r="C441" t="n">
-        <v>2.642935580209453e-26</v>
+        <v>2.556992765151142e-26</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.158544609533162</v>
       </c>
       <c r="C442" t="n">
-        <v>2.640799715978436e-26</v>
+        <v>2.559411276236246e-26</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.159461817016027</v>
       </c>
       <c r="C443" t="n">
-        <v>2.639718855531421e-26</v>
+        <v>2.56296490845352e-26</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.160379024498892</v>
       </c>
       <c r="C444" t="n">
-        <v>2.639582715815581e-26</v>
+        <v>2.567490617293178e-26</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.161296231981757</v>
       </c>
       <c r="C445" t="n">
-        <v>2.640281013778086e-26</v>
+        <v>2.572825358245429e-26</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.162213439464622</v>
       </c>
       <c r="C446" t="n">
-        <v>2.641703466366111e-26</v>
+        <v>2.578806086800485e-26</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.163130646947486</v>
       </c>
       <c r="C447" t="n">
-        <v>2.643739790526828e-26</v>
+        <v>2.585269758448558e-26</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.164047854430351</v>
       </c>
       <c r="C448" t="n">
-        <v>2.64627970320741e-26</v>
+        <v>2.592053328679859e-26</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.164965061913216</v>
       </c>
       <c r="C449" t="n">
-        <v>2.649212921355029e-26</v>
+        <v>2.598993752984599e-26</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.165882269396081</v>
       </c>
       <c r="C450" t="n">
-        <v>2.65242916191686e-26</v>
+        <v>2.605927986852991e-26</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.166799476878946</v>
       </c>
       <c r="C451" t="n">
-        <v>2.655826422347304e-26</v>
+        <v>2.612703939273732e-26</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.167716684361811</v>
       </c>
       <c r="C452" t="n">
-        <v>2.65942248392494e-26</v>
+        <v>2.619327969907703e-26</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.168633891844676</v>
       </c>
       <c r="C453" t="n">
-        <v>2.663325276414403e-26</v>
+        <v>2.625925687306955e-26</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.169551099327541</v>
       </c>
       <c r="C454" t="n">
-        <v>2.667644932511401e-26</v>
+        <v>2.632625614072337e-26</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.170468306810406</v>
       </c>
       <c r="C455" t="n">
-        <v>2.672491584911639e-26</v>
+        <v>2.639556272804697e-26</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.171385514293271</v>
       </c>
       <c r="C456" t="n">
-        <v>2.677975366310823e-26</v>
+        <v>2.646846186104881e-26</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.172302721776136</v>
       </c>
       <c r="C457" t="n">
-        <v>2.684206409404659e-26</v>
+        <v>2.654623876573735e-26</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.173219929259001</v>
       </c>
       <c r="C458" t="n">
-        <v>2.691294846888852e-26</v>
+        <v>2.663017866812108e-26</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.174137136741866</v>
       </c>
       <c r="C459" t="n">
-        <v>2.69935081145911e-26</v>
+        <v>2.672156679420847e-26</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.175054344224731</v>
       </c>
       <c r="C460" t="n">
-        <v>2.708484435811137e-26</v>
+        <v>2.6821688370008e-26</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.175971551707596</v>
       </c>
       <c r="C461" t="n">
-        <v>2.718805852640639e-26</v>
+        <v>2.693182862152813e-26</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.176888759190461</v>
       </c>
       <c r="C462" t="n">
-        <v>2.730425194643323e-26</v>
+        <v>2.705327277477732e-26</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.177805966673326</v>
       </c>
       <c r="C463" t="n">
-        <v>2.743452594514894e-26</v>
+        <v>2.718730605576409e-26</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.178723174156191</v>
       </c>
       <c r="C464" t="n">
-        <v>2.757998184951056e-26</v>
+        <v>2.733521369049685e-26</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.179640381639055</v>
       </c>
       <c r="C465" t="n">
-        <v>2.77417209864752e-26</v>
+        <v>2.749828090498411e-26</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.18055758912192</v>
       </c>
       <c r="C466" t="n">
-        <v>2.792084468299969e-26</v>
+        <v>2.767779292523416e-26</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.181474796604784</v>
       </c>
       <c r="C467" t="n">
-        <v>2.811845426604146e-26</v>
+        <v>2.787503497725581e-26</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.182392004087649</v>
       </c>
       <c r="C468" t="n">
-        <v>2.833565106255739e-26</v>
+        <v>2.809129228705738e-26</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.183309211570514</v>
       </c>
       <c r="C469" t="n">
-        <v>2.857353639950454e-26</v>
+        <v>2.832785008064733e-26</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.184226419053379</v>
       </c>
       <c r="C470" t="n">
-        <v>2.883321160383997e-26</v>
+        <v>2.858599358403413e-26</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.185143626536244</v>
       </c>
       <c r="C471" t="n">
-        <v>2.911577800252074e-26</v>
+        <v>2.886700802322625e-26</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.186060834019109</v>
       </c>
       <c r="C472" t="n">
-        <v>2.942233692250392e-26</v>
+        <v>2.917217862423219e-26</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.186978041501974</v>
       </c>
       <c r="C473" t="n">
-        <v>2.975398969074656e-26</v>
+        <v>2.950279061306039e-26</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.187895248984839</v>
       </c>
       <c r="C474" t="n">
-        <v>3.01118376342057e-26</v>
+        <v>2.986012921571934e-26</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.188812456467704</v>
       </c>
       <c r="C475" t="n">
-        <v>3.049698207983842e-26</v>
+        <v>3.024547965821751e-26</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.189729663950569</v>
       </c>
       <c r="C476" t="n">
-        <v>3.091052435460179e-26</v>
+        <v>3.066012716656338e-26</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.190646871433434</v>
       </c>
       <c r="C477" t="n">
-        <v>3.135356578545284e-26</v>
+        <v>3.110535696676539e-26</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.191564078916299</v>
       </c>
       <c r="C478" t="n">
-        <v>3.182720769934865e-26</v>
+        <v>3.158245428483205e-26</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.192481286399164</v>
       </c>
       <c r="C479" t="n">
-        <v>3.233255142324626e-26</v>
+        <v>3.209270434677181e-26</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.193398493882029</v>
       </c>
       <c r="C480" t="n">
-        <v>3.287069828410274e-26</v>
+        <v>3.263739237859316e-26</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.194315701364894</v>
       </c>
       <c r="C481" t="n">
-        <v>3.344274960887516e-26</v>
+        <v>3.321780360630456e-26</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.195232908847759</v>
       </c>
       <c r="C482" t="n">
-        <v>3.404980672452056e-26</v>
+        <v>3.383522325591448e-26</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.196150116330624</v>
       </c>
       <c r="C483" t="n">
-        <v>3.469297095799601e-26</v>
+        <v>3.449093655343142e-26</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.197067323813489</v>
       </c>
       <c r="C484" t="n">
-        <v>3.537334363625857e-26</v>
+        <v>3.518622872486381e-26</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.197984531296354</v>
       </c>
       <c r="C485" t="n">
-        <v>3.609202608626528e-26</v>
+        <v>3.592238499622015e-26</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.198901738779218</v>
       </c>
       <c r="C486" t="n">
-        <v>3.685011963497322e-26</v>
+        <v>3.67006905935089e-26</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.199818946262083</v>
       </c>
       <c r="C487" t="n">
-        <v>3.764872560933944e-26</v>
+        <v>3.752243074273855e-26</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.200736153744948</v>
       </c>
       <c r="C488" t="n">
-        <v>3.848892397227946e-26</v>
+        <v>3.838886531681485e-26</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.201653361227813</v>
       </c>
       <c r="C489" t="n">
-        <v>3.937046496643684e-26</v>
+        <v>3.929967618503587e-26</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.202570568710678</v>
       </c>
       <c r="C490" t="n">
-        <v>4.029100975652531e-26</v>
+        <v>4.025206606933338e-26</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.203487776193543</v>
       </c>
       <c r="C491" t="n">
-        <v>4.124803648737843e-26</v>
+        <v>4.12430204985669e-26</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.204404983676408</v>
       </c>
       <c r="C492" t="n">
-        <v>4.223902330382977e-26</v>
+        <v>4.226952500159593e-26</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.205322191159273</v>
       </c>
       <c r="C493" t="n">
-        <v>4.32614483507129e-26</v>
+        <v>4.332856510727995e-26</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.206239398642138</v>
       </c>
       <c r="C494" t="n">
-        <v>4.43127897728614e-26</v>
+        <v>4.441712634447848e-26</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.207156606125003</v>
       </c>
       <c r="C495" t="n">
-        <v>4.539052571510882e-26</v>
+        <v>4.5532194242051e-26</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.208073813607868</v>
       </c>
       <c r="C496" t="n">
-        <v>4.649213432228874e-26</v>
+        <v>4.667075432885701e-26</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.208991021090733</v>
       </c>
       <c r="C497" t="n">
-        <v>4.761509373923474e-26</v>
+        <v>4.782979213375603e-26</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.209908228573598</v>
       </c>
       <c r="C498" t="n">
-        <v>4.875688211078039e-26</v>
+        <v>4.900629318560755e-26</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.210825436056463</v>
       </c>
       <c r="C499" t="n">
-        <v>4.991497758175922e-26</v>
+        <v>5.019724301327105e-26</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.211742643539328</v>
       </c>
       <c r="C500" t="n">
-        <v>5.108685829700485e-26</v>
+        <v>5.139962714560604e-26</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.212659851022193</v>
       </c>
       <c r="C501" t="n">
-        <v>5.227000240135082e-26</v>
+        <v>5.261043111147201e-26</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.213577058505058</v>
       </c>
       <c r="C502" t="n">
-        <v>5.34618880396307e-26</v>
+        <v>5.382664043972847e-26</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.214494265987922</v>
       </c>
       <c r="C503" t="n">
-        <v>5.465999335667693e-26</v>
+        <v>5.504524065923376e-26</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.215411473470787</v>
       </c>
       <c r="C504" t="n">
-        <v>5.586179649732535e-26</v>
+        <v>5.626321729884968e-26</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.216328680953652</v>
       </c>
       <c r="C505" t="n">
-        <v>5.70647756064084e-26</v>
+        <v>5.747755588743462e-26</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.217245888436516</v>
       </c>
       <c r="C506" t="n">
-        <v>5.826640882875967e-26</v>
+        <v>5.868524195384802e-26</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.218163095919381</v>
       </c>
       <c r="C507" t="n">
-        <v>5.94642973804611e-26</v>
+        <v>5.988340304324244e-26</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.219080303402246</v>
       </c>
       <c r="C508" t="n">
-        <v>6.065958299126923e-26</v>
+        <v>6.107325222548856e-26</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.219997510885111</v>
       </c>
       <c r="C509" t="n">
-        <v>6.185739391481929e-26</v>
+        <v>6.226060276222111e-26</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.220914718367976</v>
       </c>
       <c r="C510" t="n">
-        <v>6.306307107186384e-26</v>
+        <v>6.345151331922926e-26</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.221831925850841</v>
       </c>
       <c r="C511" t="n">
-        <v>6.428195538315537e-26</v>
+        <v>6.465204256230208e-26</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.222749133333706</v>
       </c>
       <c r="C512" t="n">
-        <v>6.551938776944649e-26</v>
+        <v>6.586824915722878e-26</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.223666340816571</v>
       </c>
       <c r="C513" t="n">
-        <v>6.678070915148967e-26</v>
+        <v>6.710619176979845e-26</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.224583548299436</v>
       </c>
       <c r="C514" t="n">
-        <v>6.807126045003747e-26</v>
+        <v>6.837192906580024e-26</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.225500755782301</v>
       </c>
       <c r="C515" t="n">
-        <v>6.939638258584242e-26</v>
+        <v>6.967151971102327e-26</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.226417963265166</v>
       </c>
       <c r="C516" t="n">
-        <v>7.076141647965703e-26</v>
+        <v>7.101102237125666e-26</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.227335170748031</v>
       </c>
       <c r="C517" t="n">
-        <v>7.217170305223389e-26</v>
+        <v>7.239649571228958e-26</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.228252378230896</v>
       </c>
       <c r="C518" t="n">
-        <v>7.363258322432549e-26</v>
+        <v>7.383399839991114e-26</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.229169585713761</v>
       </c>
       <c r="C519" t="n">
-        <v>7.514939791668439e-26</v>
+        <v>7.532958909991048e-26</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.230086793196626</v>
       </c>
       <c r="C520" t="n">
-        <v>7.672748805006311e-26</v>
+        <v>7.688932647807674e-26</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.231004000679491</v>
       </c>
       <c r="C521" t="n">
-        <v>7.837219454521419e-26</v>
+        <v>7.851926920019905e-26</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.231921208162356</v>
       </c>
       <c r="C522" t="n">
-        <v>8.00885555479703e-26</v>
+        <v>8.022516032321983e-26</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.232838415645221</v>
       </c>
       <c r="C523" t="n">
-        <v>8.187060814320687e-26</v>
+        <v>8.200127553365658e-26</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.233755623128086</v>
       </c>
       <c r="C524" t="n">
-        <v>8.369852843286854e-26</v>
+        <v>8.382744200016672e-26</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.23467283061095</v>
       </c>
       <c r="C525" t="n">
-        <v>8.555160816754037e-26</v>
+        <v>8.568256505444445e-26</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.235590038093815</v>
       </c>
       <c r="C526" t="n">
-        <v>8.740913909780759e-26</v>
+        <v>8.754555002818402e-26</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.23650724557668</v>
       </c>
       <c r="C527" t="n">
-        <v>8.925041297425534e-26</v>
+        <v>8.939530225307968e-26</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.237424453059545</v>
       </c>
       <c r="C528" t="n">
-        <v>9.105472154746887e-26</v>
+        <v>9.121072706082573e-26</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.23834166054241</v>
       </c>
       <c r="C529" t="n">
-        <v>9.280135656803328e-26</v>
+        <v>9.297072978311635e-26</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.239258868025275</v>
       </c>
       <c r="C530" t="n">
-        <v>9.446960978653382e-26</v>
+        <v>9.465421575164586e-26</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.24017607550814</v>
       </c>
       <c r="C531" t="n">
-        <v>9.603877295355558e-26</v>
+        <v>9.624009029810844e-26</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.241093282991005</v>
       </c>
       <c r="C532" t="n">
-        <v>9.748846704042093e-26</v>
+        <v>9.770759467558403e-26</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.24201049047387</v>
       </c>
       <c r="C533" t="n">
-        <v>9.881010363108156e-26</v>
+        <v>9.904800072479388e-26</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.242927697956735</v>
       </c>
       <c r="C534" t="n">
-        <v>1.000098519212516e-25</v>
+        <v>1.002676382607366e-25</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.2438449054396</v>
       </c>
       <c r="C535" t="n">
-        <v>1.010948131145448e-25</v>
+        <v>1.013737880755206e-25</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.244762112922465</v>
       </c>
       <c r="C536" t="n">
-        <v>1.020720884145751e-25</v>
+        <v>1.023737309612543e-25</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.24567932040533</v>
       </c>
       <c r="C537" t="n">
-        <v>1.029487790249564e-25</v>
+        <v>1.03274747710046e-25</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.246596527888195</v>
       </c>
       <c r="C538" t="n">
-        <v>1.037319861493027e-25</v>
+        <v>1.040841191140042e-25</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.24751373537106</v>
       </c>
       <c r="C539" t="n">
-        <v>1.044288109912278e-25</v>
+        <v>1.048091259652374e-25</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.248430942853924</v>
       </c>
       <c r="C540" t="n">
-        <v>1.050463547543451e-25</v>
+        <v>1.054570490558532e-25</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.249348150336789</v>
       </c>
       <c r="C541" t="n">
-        <v>1.055917186422697e-25</v>
+        <v>1.060351691779615e-25</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.250265357819654</v>
       </c>
       <c r="C542" t="n">
-        <v>1.060720038586147e-25</v>
+        <v>1.065507671236698e-25</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.251182565302519</v>
       </c>
       <c r="C543" t="n">
-        <v>1.064943116069942e-25</v>
+        <v>1.070111236850867e-25</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.252099772785384</v>
       </c>
       <c r="C544" t="n">
-        <v>1.06865743091022e-25</v>
+        <v>1.074235196543205e-25</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.253016980268248</v>
       </c>
       <c r="C545" t="n">
-        <v>1.071910480773546e-25</v>
+        <v>1.077925821888408e-25</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.253934187751113</v>
       </c>
       <c r="C546" t="n">
-        <v>1.074620202503617e-25</v>
+        <v>1.081083172977036e-25</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.254851395233978</v>
       </c>
       <c r="C547" t="n">
-        <v>1.076660150471758e-25</v>
+        <v>1.083557223561728e-25</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.255768602716843</v>
       </c>
       <c r="C548" t="n">
-        <v>1.077903839778339e-25</v>
+        <v>1.085197903077218e-25</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.256685810199708</v>
       </c>
       <c r="C549" t="n">
-        <v>1.078224785523734e-25</v>
+        <v>1.085855140958243e-25</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.257603017682573</v>
       </c>
       <c r="C550" t="n">
-        <v>1.077496502808314e-25</v>
+        <v>1.085378866639537e-25</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.258520225165438</v>
       </c>
       <c r="C551" t="n">
-        <v>1.075592506732451e-25</v>
+        <v>1.083619009555834e-25</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.259437432648303</v>
       </c>
       <c r="C552" t="n">
-        <v>1.072386312396518e-25</v>
+        <v>1.080425499141872e-25</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.260354640131168</v>
       </c>
       <c r="C553" t="n">
-        <v>1.067751434900887e-25</v>
+        <v>1.075648264832383e-25</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.261271847614033</v>
       </c>
       <c r="C554" t="n">
-        <v>1.06156138934593e-25</v>
+        <v>1.069137236062104e-25</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.262189055096898</v>
       </c>
       <c r="C555" t="n">
-        <v>1.053689691842096e-25</v>
+        <v>1.0607423472063e-25</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.263106262579763</v>
       </c>
       <c r="C556" t="n">
-        <v>1.04401678258562e-25</v>
+        <v>1.050347399975679e-25</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.264023470062628</v>
       </c>
       <c r="C557" t="n">
-        <v>1.032446558817827e-25</v>
+        <v>1.037950930016912e-25</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.264940677545493</v>
       </c>
       <c r="C558" t="n">
-        <v>1.018887880294046e-25</v>
+        <v>1.023575745802202e-25</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.265857885028358</v>
       </c>
       <c r="C559" t="n">
-        <v>1.003249606769598e-25</v>
+        <v>1.007244655803752e-25</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.266775092511223</v>
       </c>
       <c r="C560" t="n">
-        <v>9.854405979998103e-26</v>
+        <v>9.889804684937654e-26</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.267692299994088</v>
       </c>
       <c r="C561" t="n">
-        <v>9.653814932012832e-26</v>
+        <v>9.688141147752835e-26</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.268609507476953</v>
       </c>
       <c r="C562" t="n">
-        <v>9.433408173867551e-26</v>
+        <v>9.470164073466368e-26</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.269526714959818</v>
       </c>
       <c r="C563" t="n">
-        <v>9.199840111426137e-26</v>
+        <v>9.24131848782096e-26</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.270443922442682</v>
       </c>
       <c r="C564" t="n">
-        <v>8.959981539414342e-26</v>
+        <v>9.007198625722895e-26</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.271361129925547</v>
       </c>
       <c r="C565" t="n">
-        <v>8.72070325255793e-26</v>
+        <v>8.773398722078479e-26</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.272278337408412</v>
       </c>
       <c r="C566" t="n">
-        <v>8.487988321060162e-26</v>
+        <v>8.544783940200969e-26</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.273195544891277</v>
       </c>
       <c r="C567" t="n">
-        <v>8.262574908962103e-26</v>
+        <v>8.321911899797381e-26</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.274112752374142</v>
       </c>
       <c r="C568" t="n">
-        <v>8.043281823431872e-26</v>
+        <v>8.103763888573646e-26</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.275029959857007</v>
       </c>
       <c r="C569" t="n">
-        <v>7.828925003952483e-26</v>
+        <v>7.889318839059397e-26</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.275947167339872</v>
       </c>
       <c r="C570" t="n">
-        <v>7.618320390006956e-26</v>
+        <v>7.677555683784276e-26</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.276864374822737</v>
       </c>
       <c r="C571" t="n">
-        <v>7.410283921078304e-26</v>
+        <v>7.46745335527792e-26</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.277781582305602</v>
       </c>
       <c r="C572" t="n">
-        <v>7.203631536649546e-26</v>
+        <v>7.257990786069972e-26</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.278698789788467</v>
       </c>
       <c r="C573" t="n">
-        <v>6.997179176203695e-26</v>
+        <v>7.048146908690069e-26</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.279615997271332</v>
       </c>
       <c r="C574" t="n">
-        <v>6.789742779223773e-26</v>
+        <v>6.836900655667851e-26</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.280533204754196</v>
       </c>
       <c r="C575" t="n">
-        <v>6.580138285192991e-26</v>
+        <v>6.62323095953316e-26</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.281450412237062</v>
       </c>
       <c r="C576" t="n">
-        <v>6.367181633593759e-26</v>
+        <v>6.406116752815017e-26</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.282367619719926</v>
       </c>
       <c r="C577" t="n">
-        <v>6.149903503841313e-26</v>
+        <v>6.184743646910805e-26</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.283284827202792</v>
       </c>
       <c r="C578" t="n">
-        <v>5.929187945009185e-26</v>
+        <v>5.960081049731321e-26</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.284202034685656</v>
       </c>
       <c r="C579" t="n">
-        <v>5.706866695559719e-26</v>
+        <v>5.734010483519364e-26</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.285119242168521</v>
       </c>
       <c r="C580" t="n">
-        <v>5.484779131295873e-26</v>
+        <v>5.50842082116219e-26</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.286036449651386</v>
       </c>
       <c r="C581" t="n">
-        <v>5.264764628021467e-26</v>
+        <v>5.285200935547931e-26</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.286953657134251</v>
       </c>
       <c r="C582" t="n">
-        <v>5.048662561540099e-26</v>
+        <v>5.066239699564488e-26</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.287870864617116</v>
       </c>
       <c r="C583" t="n">
-        <v>4.838312307655372e-26</v>
+        <v>4.85342598609978e-26</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.28878807209998</v>
       </c>
       <c r="C584" t="n">
-        <v>4.635553242170889e-26</v>
+        <v>4.648648668041714e-26</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.289705279582845</v>
       </c>
       <c r="C585" t="n">
-        <v>4.442224740890252e-26</v>
+        <v>4.4537966182782e-26</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.29062248706571</v>
       </c>
       <c r="C586" t="n">
-        <v>4.26013447418197e-26</v>
+        <v>4.270725475910343e-26</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.291539694548575</v>
       </c>
       <c r="C587" t="n">
-        <v>4.089921273500829e-26</v>
+        <v>4.100065697569571e-26</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.29245690203144</v>
       </c>
       <c r="C588" t="n">
-        <v>3.930741469388052e-26</v>
+        <v>3.940893775428005e-26</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.293374109514305</v>
       </c>
       <c r="C589" t="n">
-        <v>3.781655841162776e-26</v>
+        <v>3.792186044415498e-26</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.29429131699717</v>
       </c>
       <c r="C590" t="n">
-        <v>3.64172516814414e-26</v>
+        <v>3.652918839461906e-26</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.295208524480035</v>
       </c>
       <c r="C591" t="n">
-        <v>3.510010229651285e-26</v>
+        <v>3.522068495497083e-26</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.2961257319629</v>
       </c>
       <c r="C592" t="n">
-        <v>3.38557180500335e-26</v>
+        <v>3.398611347450885e-26</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.297042939445765</v>
       </c>
       <c r="C593" t="n">
-        <v>3.267470673519473e-26</v>
+        <v>3.281523730253165e-26</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.29796014692863</v>
       </c>
       <c r="C594" t="n">
-        <v>3.154767614518792e-26</v>
+        <v>3.169781978833778e-26</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.298877354411495</v>
       </c>
       <c r="C595" t="n">
-        <v>3.046523407320449e-26</v>
+        <v>3.062362428122581e-26</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.29979456189436</v>
       </c>
       <c r="C596" t="n">
-        <v>2.941798831243579e-26</v>
+        <v>2.958241413049424e-26</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.300711769377225</v>
       </c>
       <c r="C597" t="n">
-        <v>2.839654665607325e-26</v>
+        <v>2.856395268544167e-26</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.30162897686009</v>
       </c>
       <c r="C598" t="n">
-        <v>2.739151689730823e-26</v>
+        <v>2.755800329536661e-26</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.302546184342955</v>
       </c>
       <c r="C599" t="n">
-        <v>2.639350682933214e-26</v>
+        <v>2.655432930956763e-26</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.30346339182582</v>
       </c>
       <c r="C600" t="n">
-        <v>2.53931332129389e-26</v>
+        <v>2.554270389002873e-26</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.304380599308685</v>
       </c>
       <c r="C601" t="n">
-        <v>2.438941717427863e-26</v>
+        <v>2.452209656905216e-26</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.305297806791549</v>
       </c>
       <c r="C602" t="n">
-        <v>2.340537793303756e-26</v>
+        <v>2.351773648876628e-26</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.306215014274414</v>
       </c>
       <c r="C603" t="n">
-        <v>2.246829030262071e-26</v>
+        <v>2.255950942081321e-26</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.307132221757279</v>
       </c>
       <c r="C604" t="n">
-        <v>2.160542909643311e-26</v>
+        <v>2.167730113683503e-26</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.308049429240144</v>
       </c>
       <c r="C605" t="n">
-        <v>2.084406912787977e-26</v>
+        <v>2.090099740847388e-26</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.308966636723009</v>
       </c>
       <c r="C606" t="n">
-        <v>2.021148521036572e-26</v>
+        <v>2.026048400737184e-26</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.309883844205874</v>
       </c>
       <c r="C607" t="n">
-        <v>1.973495215729598e-26</v>
+        <v>1.978564670517103e-26</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.310801051688739</v>
       </c>
       <c r="C608" t="n">
-        <v>1.941988798537013e-26</v>
+        <v>1.948260984451238e-26</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.311718259171604</v>
       </c>
       <c r="C609" t="n">
-        <v>1.916019742852826e-26</v>
+        <v>1.923626705949869e-26</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.312635466654469</v>
       </c>
       <c r="C610" t="n">
-        <v>1.884016233309295e-26</v>
+        <v>1.89209512562787e-26</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.313552674137334</v>
       </c>
       <c r="C611" t="n">
-        <v>1.846167452686836e-26</v>
+        <v>1.853840221995831e-26</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.314469881620198</v>
       </c>
       <c r="C612" t="n">
-        <v>1.806006526481477e-26</v>
+        <v>1.812658467932416e-26</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.315387089103064</v>
       </c>
       <c r="C613" t="n">
-        <v>1.767066813468606e-26</v>
+        <v>1.77234658902792e-26</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.316304296585928</v>
       </c>
       <c r="C614" t="n">
-        <v>1.732881672423877e-26</v>
+        <v>1.736701310872908e-26</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.317221504068794</v>
       </c>
       <c r="C615" t="n">
-        <v>1.706984462122668e-26</v>
+        <v>1.70951935905766e-26</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.318138711551658</v>
       </c>
       <c r="C616" t="n">
-        <v>1.692908541340581e-26</v>
+        <v>1.69459745917269e-26</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.319055919034523</v>
       </c>
       <c r="C617" t="n">
-        <v>1.694042906531676e-26</v>
+        <v>1.695576820517484e-26</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.319973126517388</v>
       </c>
       <c r="C618" t="n">
-        <v>1.710163482072475e-26</v>
+        <v>1.712206420937132e-26</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.320890334000253</v>
       </c>
       <c r="C619" t="n">
-        <v>1.737262592593315e-26</v>
+        <v>1.740159303552236e-26</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.321807541483118</v>
       </c>
       <c r="C620" t="n">
-        <v>1.771154072129051e-26</v>
+        <v>1.774916230041137e-26</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.322724748965983</v>
       </c>
       <c r="C621" t="n">
-        <v>1.807651754714535e-26</v>
+        <v>1.811957962082175e-26</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.323641956448848</v>
       </c>
       <c r="C622" t="n">
-        <v>1.84284663352449e-26</v>
+        <v>1.847090830622917e-26</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.324559163931712</v>
       </c>
       <c r="C623" t="n">
-        <v>1.874809735635197e-26</v>
+        <v>1.878447044049698e-26</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.325476371414577</v>
       </c>
       <c r="C624" t="n">
-        <v>1.902473489534167e-26</v>
+        <v>1.905170669235988e-26</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.326393578897442</v>
       </c>
       <c r="C625" t="n">
-        <v>1.924773858777934e-26</v>
+        <v>1.926409925578747e-26</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.327310786380307</v>
       </c>
       <c r="C626" t="n">
-        <v>1.940646806923034e-26</v>
+        <v>1.941313032474936e-26</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.328227993863172</v>
       </c>
       <c r="C627" t="n">
-        <v>1.949033621551424e-26</v>
+        <v>1.94903221848548e-26</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.329145201346037</v>
       </c>
       <c r="C628" t="n">
-        <v>1.949294325328017e-26</v>
+        <v>1.949035033281252e-26</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.330062408828902</v>
       </c>
       <c r="C629" t="n">
-        <v>1.941502606358889e-26</v>
+        <v>1.941326439776489e-26</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.330979616311767</v>
       </c>
       <c r="C630" t="n">
-        <v>1.92580177186323e-26</v>
+        <v>1.925963826337492e-26</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.331896823794632</v>
       </c>
       <c r="C631" t="n">
-        <v>1.902335129060228e-26</v>
+        <v>1.903004581330564e-26</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.332814031277497</v>
       </c>
       <c r="C632" t="n">
-        <v>1.871245985169071e-26</v>
+        <v>1.872506093122006e-26</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.333731238760362</v>
       </c>
       <c r="C633" t="n">
-        <v>1.832706789754359e-26</v>
+        <v>1.834557925299332e-26</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.334648446243227</v>
       </c>
       <c r="C634" t="n">
-        <v>1.787328675589549e-26</v>
+        <v>1.789733978900855e-26</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.335565653726092</v>
       </c>
       <c r="C635" t="n">
-        <v>1.73606182348067e-26</v>
+        <v>1.738982488097499e-26</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.336482861208957</v>
       </c>
       <c r="C636" t="n">
-        <v>1.679865213993927e-26</v>
+        <v>1.683261402621041e-26</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.337400068691822</v>
       </c>
       <c r="C637" t="n">
-        <v>1.619697827695524e-26</v>
+        <v>1.623528672203259e-26</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.338317276174687</v>
       </c>
       <c r="C638" t="n">
-        <v>1.556518645151666e-26</v>
+        <v>1.560742246575931e-26</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.339234483657552</v>
       </c>
       <c r="C639" t="n">
-        <v>1.491286646928561e-26</v>
+        <v>1.495860075470836e-26</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.340151691140417</v>
       </c>
       <c r="C640" t="n">
-        <v>1.424960813592411e-26</v>
+        <v>1.429840108619751e-26</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.341068898623281</v>
       </c>
       <c r="C641" t="n">
-        <v>1.358500125709423e-26</v>
+        <v>1.363640295754453e-26</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.341986106106146</v>
       </c>
       <c r="C642" t="n">
-        <v>1.292861170353393e-26</v>
+        <v>1.29821620209341e-26</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.342903313589011</v>
       </c>
       <c r="C643" t="n">
-        <v>1.22872491672507e-26</v>
+        <v>1.234248808952283e-26</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.343820521071876</v>
       </c>
       <c r="C644" t="n">
-        <v>1.166244409815534e-26</v>
+        <v>1.171893153925174e-26</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.344737728554741</v>
       </c>
       <c r="C645" t="n">
-        <v>1.105513055117622e-26</v>
+        <v>1.111244858843313e-26</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.345654936037606</v>
       </c>
       <c r="C646" t="n">
-        <v>1.046624258124171e-26</v>
+        <v>1.052399545537928e-26</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.346572143520471</v>
       </c>
       <c r="C647" t="n">
-        <v>9.896714243280167e-27</v>
+        <v>9.954528358402493e-27</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.347489351003336</v>
       </c>
       <c r="C648" t="n">
-        <v>9.347479592219963e-27</v>
+        <v>9.405003515815052e-27</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.3484065584862</v>
       </c>
       <c r="C649" t="n">
-        <v>8.819472682989968e-27</v>
+        <v>8.876377145929745e-27</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.349323765969066</v>
       </c>
       <c r="C650" t="n">
-        <v>8.313627570517044e-27</v>
+        <v>8.369605467057358e-27</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.35024097345193</v>
       </c>
       <c r="C651" t="n">
-        <v>7.830878309731518e-27</v>
+        <v>7.885644697512146e-27</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.351158180934796</v>
       </c>
       <c r="C652" t="n">
-        <v>7.372158955559889e-27</v>
+        <v>7.425451055604523e-27</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.35207538841766</v>
       </c>
       <c r="C653" t="n">
-        <v>6.938403562932296e-27</v>
+        <v>6.989980759648558e-27</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.352992595900525</v>
       </c>
       <c r="C654" t="n">
-        <v>6.530546186775815e-27</v>
+        <v>6.580190027955241e-27</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.35390980338339</v>
       </c>
       <c r="C655" t="n">
-        <v>6.149520882019242e-27</v>
+        <v>6.197035078837296e-27</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.354827010866255</v>
       </c>
       <c r="C656" t="n">
-        <v>5.796260444522295e-27</v>
+        <v>5.841470878725608e-27</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.35574421834912</v>
       </c>
       <c r="C657" t="n">
-        <v>5.471098850973008e-27</v>
+        <v>5.513856993168207e-27</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.356661425831985</v>
       </c>
       <c r="C658" t="n">
-        <v>5.172814962461304e-27</v>
+        <v>5.213006749309543e-27</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.35757863331485</v>
       </c>
       <c r="C659" t="n">
-        <v>4.899938458729682e-27</v>
+        <v>4.937485715369067e-27</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.358495840797715</v>
       </c>
       <c r="C660" t="n">
-        <v>4.650999019520646e-27</v>
+        <v>4.685859459566232e-27</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.35941304828058</v>
       </c>
       <c r="C661" t="n">
-        <v>4.424526324576699e-27</v>
+        <v>4.456693550120491e-27</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.360330255763444</v>
       </c>
       <c r="C662" t="n">
-        <v>4.219050053640342e-27</v>
+        <v>4.248553555251297e-27</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.361247463246309</v>
       </c>
       <c r="C663" t="n">
-        <v>4.033099886454081e-27</v>
+        <v>4.060005043178103e-27</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.362164670729174</v>
       </c>
       <c r="C664" t="n">
-        <v>3.865205502760415e-27</v>
+        <v>3.88961358212036e-27</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.363081878212039</v>
       </c>
       <c r="C665" t="n">
-        <v>3.713896582301847e-27</v>
+        <v>3.735944740297521e-27</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.363999085694904</v>
       </c>
       <c r="C666" t="n">
-        <v>3.577702804820881e-27</v>
+        <v>3.597564085929039e-27</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.364916293177769</v>
       </c>
       <c r="C667" t="n">
-        <v>3.45515385006002e-27</v>
+        <v>3.473037187234367e-27</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.365833500660634</v>
       </c>
       <c r="C668" t="n">
-        <v>3.344779397761765e-27</v>
+        <v>3.360929612432957e-27</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.366750708143499</v>
       </c>
       <c r="C669" t="n">
-        <v>3.245109127668618e-27</v>
+        <v>3.259806929744262e-27</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.367667915626364</v>
       </c>
       <c r="C670" t="n">
-        <v>3.154760667865961e-27</v>
+        <v>3.168306826972458e-27</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.368585123109229</v>
       </c>
       <c r="C671" t="n">
-        <v>3.073033101452824e-27</v>
+        <v>3.085625800092348e-27</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.369502330592094</v>
       </c>
       <c r="C672" t="n">
-        <v>2.999543702391181e-27</v>
+        <v>3.011221268618027e-27</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.370419538074959</v>
       </c>
       <c r="C673" t="n">
-        <v>2.933911540216851e-27</v>
+        <v>2.944552124473824e-27</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.371336745557824</v>
       </c>
       <c r="C674" t="n">
-        <v>2.875755684465654e-27</v>
+        <v>2.885077259584066e-27</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.372253953040689</v>
       </c>
       <c r="C675" t="n">
-        <v>2.824695204673411e-27</v>
+        <v>2.832255565873084e-27</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.373171160523554</v>
       </c>
       <c r="C676" t="n">
-        <v>2.780349170375942e-27</v>
+        <v>2.785545935265206e-27</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.374088368006419</v>
       </c>
       <c r="C677" t="n">
-        <v>2.742336651109064e-27</v>
+        <v>2.744407259684761e-27</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.375005575489284</v>
       </c>
       <c r="C678" t="n">
-        <v>2.710276716408599e-27</v>
+        <v>2.708298431056079e-27</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.375922782972149</v>
       </c>
       <c r="C679" t="n">
-        <v>2.683109625532351e-27</v>
+        <v>2.676177966371824e-27</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.376839990455013</v>
       </c>
       <c r="C680" t="n">
-        <v>2.656204416865485e-27</v>
+        <v>2.644371910109181e-27</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.377757197937878</v>
       </c>
       <c r="C681" t="n">
-        <v>2.623759859873871e-27</v>
+        <v>2.608343660363151e-27</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.378674405420743</v>
       </c>
       <c r="C682" t="n">
-        <v>2.5799740452131e-27</v>
+        <v>2.563556114853799e-27</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.379591612903608</v>
       </c>
       <c r="C683" t="n">
-        <v>2.519046108084292e-27</v>
+        <v>2.505473122143186e-27</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.380508820386473</v>
       </c>
       <c r="C684" t="n">
-        <v>2.444570778790936e-27</v>
+        <v>2.438111270827868e-27</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.381426027869338</v>
       </c>
       <c r="C685" t="n">
-        <v>2.389252599246869e-27</v>
+        <v>2.391667125054589e-27</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.382343235352202</v>
       </c>
       <c r="C686" t="n">
-        <v>2.353021349643324e-27</v>
+        <v>2.362552460229635e-27</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.383260442835068</v>
       </c>
       <c r="C687" t="n">
-        <v>2.309156794339395e-27</v>
+        <v>2.32030588714016e-27</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.384177650317932</v>
       </c>
       <c r="C688" t="n">
-        <v>2.244982262285496e-27</v>
+        <v>2.251213576171148e-27</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.385094857800798</v>
       </c>
       <c r="C689" t="n">
-        <v>2.171627900700287e-27</v>
+        <v>2.169800851362961e-27</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.386012065283662</v>
       </c>
       <c r="C690" t="n">
-        <v>2.102425682969342e-27</v>
+        <v>2.093204797250284e-27</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.386929272766527</v>
       </c>
       <c r="C691" t="n">
-        <v>2.049926699619186e-27</v>
+        <v>2.037549985127061e-27</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.387846480249392</v>
       </c>
       <c r="C692" t="n">
-        <v>2.013797644782083e-27</v>
+        <v>2.00225473925136e-27</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.388763687732257</v>
       </c>
       <c r="C693" t="n">
-        <v>1.983134775096433e-27</v>
+        <v>1.973031476778941e-27</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.389680895215122</v>
       </c>
       <c r="C694" t="n">
-        <v>1.947474509091198e-27</v>
+        <v>1.936217710041137e-27</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.390598102697987</v>
       </c>
       <c r="C695" t="n">
-        <v>1.904712737456589e-27</v>
+        <v>1.889594003433665e-27</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.391515310180852</v>
       </c>
       <c r="C696" t="n">
-        <v>1.857959394411306e-27</v>
+        <v>1.838078282469257e-27</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.392432517663717</v>
       </c>
       <c r="C697" t="n">
-        <v>1.810402172081845e-27</v>
+        <v>1.786694647587446e-27</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.393349725146582</v>
       </c>
       <c r="C698" t="n">
-        <v>1.764267150622667e-27</v>
+        <v>1.738973014084102e-27</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.394266932629447</v>
       </c>
       <c r="C699" t="n">
-        <v>1.719152673455759e-27</v>
+        <v>1.694360231214617e-27</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.395184140112312</v>
       </c>
       <c r="C700" t="n">
-        <v>1.674212327459534e-27</v>
+        <v>1.651612070503153e-27</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.396101347595176</v>
       </c>
       <c r="C701" t="n">
-        <v>1.628599699512402e-27</v>
+        <v>1.609484303473869e-27</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.397018555078041</v>
       </c>
       <c r="C702" t="n">
-        <v>1.581468376492774e-27</v>
+        <v>1.566732701650924e-27</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.397935762560906</v>
       </c>
       <c r="C703" t="n">
-        <v>1.531971945279062e-27</v>
+        <v>1.522113036558479e-27</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.398852970043771</v>
       </c>
       <c r="C704" t="n">
-        <v>1.479263992749678e-27</v>
+        <v>1.474381079720696e-27</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.399770177526636</v>
       </c>
       <c r="C705" t="n">
-        <v>1.422498105783032e-27</v>
+        <v>1.422292602661733e-27</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.400687385009501</v>
       </c>
       <c r="C706" t="n">
-        <v>1.360827871257535e-27</v>
+        <v>1.364603376905751e-27</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.401604592492366</v>
       </c>
       <c r="C707" t="n">
-        <v>1.294108575863133e-27</v>
+        <v>1.300811454540151e-27</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.402521799975231</v>
       </c>
       <c r="C708" t="n">
-        <v>1.227632525783262e-27</v>
+        <v>1.236166341230697e-27</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.403439007458096</v>
       </c>
       <c r="C709" t="n">
-        <v>1.169230727320691e-27</v>
+        <v>1.178603061042198e-27</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.404356214940961</v>
       </c>
       <c r="C710" t="n">
-        <v>1.126748512844921e-27</v>
+        <v>1.136071792612269e-27</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.405273422423826</v>
       </c>
       <c r="C711" t="n">
-        <v>1.108031214725458e-27</v>
+        <v>1.116522714578529e-27</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.406190629906691</v>
       </c>
       <c r="C712" t="n">
-        <v>1.120922709050596e-27</v>
+        <v>1.127904557680461e-27</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.407107837389556</v>
       </c>
       <c r="C713" t="n">
-        <v>1.170326825111822e-27</v>
+        <v>1.175242930221136e-27</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.408025044872421</v>
       </c>
       <c r="C714" t="n">
-        <v>1.252041269956516e-27</v>
+        <v>1.254509737593407e-27</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.408942252355286</v>
       </c>
       <c r="C715" t="n">
-        <v>1.360106093317411e-27</v>
+        <v>1.359929345818457e-27</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.409859459838151</v>
       </c>
       <c r="C716" t="n">
-        <v>1.48856134492724e-27</v>
+        <v>1.485726120917471e-27</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.410776667321016</v>
       </c>
       <c r="C717" t="n">
-        <v>1.631447074518736e-27</v>
+        <v>1.626124428911635e-27</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.411693874803881</v>
       </c>
       <c r="C718" t="n">
-        <v>1.782803331824635e-27</v>
+        <v>1.775348635822133e-27</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.412611082286745</v>
       </c>
       <c r="C719" t="n">
-        <v>1.936670166577667e-27</v>
+        <v>1.927623107670151e-27</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.41352828976961</v>
       </c>
       <c r="C720" t="n">
-        <v>2.087087628510568e-27</v>
+        <v>2.077172210476874e-27</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.414445497252475</v>
       </c>
       <c r="C721" t="n">
-        <v>2.228269576147583e-27</v>
+        <v>2.218373053129449e-27</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.41536270473534</v>
       </c>
       <c r="C722" t="n">
-        <v>2.356378085864024e-27</v>
+        <v>2.347314834999637e-27</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.416279912218204</v>
       </c>
       <c r="C723" t="n">
-        <v>2.468798644208564e-27</v>
+        <v>2.461161886207757e-27</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.41719711970107</v>
       </c>
       <c r="C724" t="n">
-        <v>2.562935674123656e-27</v>
+        <v>2.557095178144349e-27</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.418114327183934</v>
       </c>
       <c r="C725" t="n">
-        <v>2.63619359855109e-27</v>
+        <v>2.632295682199275e-27</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.4190315346668</v>
       </c>
       <c r="C726" t="n">
-        <v>2.685993239920221e-27</v>
+        <v>2.683961439774644e-27</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.419948742149664</v>
       </c>
       <c r="C727" t="n">
-        <v>2.711598435256641e-27</v>
+        <v>2.711208862075983e-27</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.420865949632529</v>
       </c>
       <c r="C728" t="n">
-        <v>2.715778829998336e-27</v>
+        <v>2.716803510461326e-27</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.421783157115394</v>
       </c>
       <c r="C729" t="n">
-        <v>2.701696779381095e-27</v>
+        <v>2.70391971278418e-27</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.422700364598259</v>
       </c>
       <c r="C730" t="n">
-        <v>2.672514638640741e-27</v>
+        <v>2.675731796898087e-27</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.423617572081124</v>
       </c>
       <c r="C731" t="n">
-        <v>2.631385903973311e-27</v>
+        <v>2.63540530893589e-27</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.424534779563989</v>
       </c>
       <c r="C732" t="n">
-        <v>2.580808469350964e-27</v>
+        <v>2.585455914709476e-27</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.425451987046854</v>
       </c>
       <c r="C733" t="n">
-        <v>2.522185455099576e-27</v>
+        <v>2.527314061246064e-27</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.426369194529719</v>
       </c>
       <c r="C734" t="n">
-        <v>2.456815982674493e-27</v>
+        <v>2.462307104373823e-27</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.427286402012584</v>
       </c>
       <c r="C735" t="n">
-        <v>2.385999173531059e-27</v>
+        <v>2.391762399920922e-27</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.428203609495449</v>
       </c>
       <c r="C736" t="n">
-        <v>2.311034149124623e-27</v>
+        <v>2.317007303715532e-27</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.429120816978314</v>
       </c>
       <c r="C737" t="n">
-        <v>2.23322003091053e-27</v>
+        <v>2.239369171585822e-27</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.430038024461179</v>
       </c>
       <c r="C738" t="n">
-        <v>2.15378912837855e-27</v>
+        <v>2.160106245527552e-27</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.430955231944044</v>
       </c>
       <c r="C739" t="n">
-        <v>2.073420726874603e-27</v>
+        <v>2.07990469009996e-27</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.431872439426908</v>
       </c>
       <c r="C740" t="n">
-        <v>1.992521003072074e-27</v>
+        <v>1.999168151800433e-27</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.432789646909773</v>
       </c>
       <c r="C741" t="n">
-        <v>1.911494201786313e-27</v>
+        <v>1.918298278710187e-27</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.433706854392638</v>
       </c>
       <c r="C742" t="n">
-        <v>1.830744567832671e-27</v>
+        <v>1.837696718910436e-27</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.434624061875503</v>
       </c>
       <c r="C743" t="n">
-        <v>1.750676346026497e-27</v>
+        <v>1.757765120482398e-27</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.435541269358368</v>
       </c>
       <c r="C744" t="n">
-        <v>1.67169378118314e-27</v>
+        <v>1.678905131507288e-27</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.436458476841233</v>
       </c>
       <c r="C745" t="n">
-        <v>1.594201118117952e-27</v>
+        <v>1.60151840006632e-27</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.437375684324098</v>
       </c>
       <c r="C746" t="n">
-        <v>1.51860260164628e-27</v>
+        <v>1.52600657424071e-27</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.438292891806963</v>
       </c>
       <c r="C747" t="n">
-        <v>1.445302476583475e-27</v>
+        <v>1.452771302111674e-27</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.439210099289828</v>
       </c>
       <c r="C748" t="n">
-        <v>1.374704987744888e-27</v>
+        <v>1.382214231760427e-27</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.440127306772693</v>
       </c>
       <c r="C749" t="n">
-        <v>1.307214379945867e-27</v>
+        <v>1.314737011268185e-27</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.441044514255558</v>
       </c>
       <c r="C750" t="n">
-        <v>1.243214597340809e-27</v>
+        <v>1.250721158428532e-27</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.441961721738423</v>
       </c>
       <c r="C751" t="n">
-        <v>1.182807218424575e-27</v>
+        <v>1.190268195129706e-27</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.442878929221288</v>
       </c>
       <c r="C752" t="n">
-        <v>1.125886902594723e-27</v>
+        <v>1.133274460731442e-27</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.443796136704153</v>
       </c>
       <c r="C753" t="n">
-        <v>1.072343556522927e-27</v>
+        <v>1.07963158175485e-27</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.444713344187018</v>
       </c>
       <c r="C754" t="n">
-        <v>1.022067086880859e-27</v>
+        <v>1.029231184721041e-27</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.445630551669883</v>
       </c>
       <c r="C755" t="n">
-        <v>9.749474003401925e-28</v>
+        <v>9.819648961511247e-28</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.446547759152748</v>
       </c>
       <c r="C756" t="n">
-        <v>9.30874403572601e-28</v>
+        <v>9.377243425662123e-28</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.447464966635613</v>
       </c>
       <c r="C757" t="n">
-        <v>8.897380032497573e-28</v>
+        <v>8.964011504874138e-28</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.448382174118477</v>
       </c>
       <c r="C758" t="n">
-        <v>8.514281060433351e-28</v>
+        <v>8.578869464358401e-28</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.449299381601342</v>
       </c>
       <c r="C759" t="n">
-        <v>8.15834618625007e-28</v>
+        <v>8.220733569326011e-28</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.450216589084206</v>
       </c>
       <c r="C760" t="n">
-        <v>7.828474476664769e-28</v>
+        <v>7.888520084988384e-28</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.451133796567072</v>
       </c>
       <c r="C761" t="n">
-        <v>7.523564998393265e-28</v>
+        <v>7.581145276555697e-28</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.452051004049936</v>
       </c>
       <c r="C762" t="n">
-        <v>7.242516818153464e-28</v>
+        <v>7.297525409240244e-28</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.452968211532802</v>
       </c>
       <c r="C763" t="n">
-        <v>6.984229002661014e-28</v>
+        <v>7.036576748252033e-28</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.453885419015666</v>
       </c>
       <c r="C764" t="n">
-        <v>6.747600618633644e-28</v>
+        <v>6.797215558803177e-28</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.454802626498531</v>
       </c>
       <c r="C765" t="n">
-        <v>6.531530732787372e-28</v>
+        <v>6.578358106104056e-28</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.455719833981396</v>
       </c>
       <c r="C766" t="n">
-        <v>6.334918411839166e-28</v>
+        <v>6.378920655366017e-28</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.456637041464261</v>
       </c>
       <c r="C767" t="n">
-        <v>6.156662722505757e-28</v>
+        <v>6.197819471800161e-28</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.457554248947126</v>
       </c>
       <c r="C768" t="n">
-        <v>5.99566273150388e-28</v>
+        <v>6.033970820617595e-28</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.458471456429991</v>
       </c>
       <c r="C769" t="n">
-        <v>5.850817505550265e-28</v>
+        <v>5.886290967029425e-28</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.459388663912856</v>
       </c>
       <c r="C770" t="n">
-        <v>5.721026111361644e-28</v>
+        <v>5.753696176246752e-28</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.460305871395721</v>
       </c>
       <c r="C771" t="n">
-        <v>5.60518761565475e-28</v>
+        <v>5.635102713480683e-28</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.461223078878586</v>
       </c>
       <c r="C772" t="n">
-        <v>5.502201085146311e-28</v>
+        <v>5.529426843942319e-28</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.462140286361451</v>
       </c>
       <c r="C773" t="n">
-        <v>5.410965586553064e-28</v>
+        <v>5.435584832842769e-28</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.463057493844316</v>
       </c>
       <c r="C774" t="n">
-        <v>5.330380186591737e-28</v>
+        <v>5.352492945393133e-28</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.463974701327181</v>
       </c>
       <c r="C775" t="n">
-        <v>5.259343951979062e-28</v>
+        <v>5.279067446804518e-28</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.464891908810046</v>
       </c>
       <c r="C776" t="n">
-        <v>5.196755949431774e-28</v>
+        <v>5.214224602288029e-28</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.465809116292911</v>
       </c>
       <c r="C777" t="n">
-        <v>5.141515245666601e-28</v>
+        <v>5.156880677054767e-28</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.466726323775775</v>
       </c>
       <c r="C778" t="n">
-        <v>5.092520907400277e-28</v>
+        <v>5.10595193631584e-28</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.46764353125864</v>
       </c>
       <c r="C779" t="n">
-        <v>5.048672001349533e-28</v>
+        <v>5.060354645282349e-28</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.468560738741505</v>
       </c>
       <c r="C780" t="n">
-        <v>5.0088675942311e-28</v>
+        <v>5.019005069165401e-28</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.46947794622437</v>
       </c>
       <c r="C781" t="n">
-        <v>4.97200675276171e-28</v>
+        <v>4.980819473176099e-28</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.470395153707235</v>
       </c>
       <c r="C782" t="n">
-        <v>4.936988543658097e-28</v>
+        <v>4.944714122525551e-28</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.4713123611901</v>
       </c>
       <c r="C783" t="n">
-        <v>4.902712033636991e-28</v>
+        <v>4.909605282424855e-28</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.472229568672965</v>
       </c>
       <c r="C784" t="n">
-        <v>4.868076289415125e-28</v>
+        <v>4.87440921808512e-28</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.47314677615583</v>
       </c>
       <c r="C785" t="n">
-        <v>4.831980377709228e-28</v>
+        <v>4.838042194717449e-28</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.474063983638695</v>
       </c>
       <c r="C786" t="n">
-        <v>4.793323365236035e-28</v>
+        <v>4.799420477532945e-28</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.47498119112156</v>
       </c>
       <c r="C787" t="n">
-        <v>4.751009423576157e-28</v>
+        <v>4.757465294671498e-28</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.475898398604425</v>
       </c>
       <c r="C788" t="n">
-        <v>4.704592513030272e-28</v>
+        <v>4.711729596335845e-28</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.47681560608729</v>
       </c>
       <c r="C789" t="n">
-        <v>4.654906224747768e-28</v>
+        <v>4.66301038485594e-28</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.477732813570155</v>
       </c>
       <c r="C790" t="n">
-        <v>4.602933664107999e-28</v>
+        <v>4.612250019713779e-28</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.47865002105302</v>
       </c>
       <c r="C791" t="n">
-        <v>4.549657936490312e-28</v>
+        <v>4.560390860391359e-28</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.479567228535885</v>
       </c>
       <c r="C792" t="n">
-        <v>4.496062147274064e-28</v>
+        <v>4.508375266370675e-28</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.48048443601875</v>
       </c>
       <c r="C793" t="n">
-        <v>4.443129401838603e-28</v>
+        <v>4.457145597133725e-28</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.481401643501615</v>
       </c>
       <c r="C794" t="n">
-        <v>4.391842805563283e-28</v>
+        <v>4.407644212162503e-28</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.48231885098448</v>
       </c>
       <c r="C795" t="n">
-        <v>4.343185463827453e-28</v>
+        <v>4.360813470939007e-28</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.483236058467345</v>
       </c>
       <c r="C796" t="n">
-        <v>4.298140482010469e-28</v>
+        <v>4.317595732945232e-28</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.484153265950209</v>
       </c>
       <c r="C797" t="n">
-        <v>4.257690965491715e-28</v>
+        <v>4.278933357663211e-28</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.485070473433074</v>
       </c>
       <c r="C798" t="n">
-        <v>4.222820019650436e-28</v>
+        <v>4.245768704574833e-28</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.485987680915938</v>
       </c>
       <c r="C799" t="n">
-        <v>4.194510749866116e-28</v>
+        <v>4.219044133162223e-28</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.486904888398804</v>
       </c>
       <c r="C800" t="n">
-        <v>4.173746261518e-28</v>
+        <v>4.199702002907275e-28</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.487822095881668</v>
       </c>
       <c r="C801" t="n">
-        <v>4.161509659985517e-28</v>
+        <v>4.188684673292059e-28</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.488739303364533</v>
       </c>
       <c r="C802" t="n">
-        <v>4.158784050647969e-28</v>
+        <v>4.186934503798524e-28</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.489656510847398</v>
       </c>
       <c r="C803" t="n">
-        <v>4.166552538884726e-28</v>
+        <v>4.195393853908685e-28</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.490573718330263</v>
       </c>
       <c r="C804" t="n">
-        <v>4.185798230075141e-28</v>
+        <v>4.215005083104537e-28</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.491490925813128</v>
       </c>
       <c r="C805" t="n">
-        <v>4.217504229598564e-28</v>
+        <v>4.246710550868075e-28</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.492408133295993</v>
       </c>
       <c r="C806" t="n">
-        <v>4.262653642834346e-28</v>
+        <v>4.291452616681296e-28</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.493325340778858</v>
       </c>
       <c r="C807" t="n">
-        <v>4.322229575161841e-28</v>
+        <v>4.350173640026196e-28</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.494242548261723</v>
       </c>
       <c r="C808" t="n">
-        <v>4.397215131960398e-28</v>
+        <v>4.423815980384773e-28</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.495159755744588</v>
       </c>
       <c r="C809" t="n">
-        <v>4.48859341860937e-28</v>
+        <v>4.51332199723902e-28</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.496076963227453</v>
       </c>
       <c r="C810" t="n">
-        <v>4.59734754048811e-28</v>
+        <v>4.619634050070936e-28</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.496994170710318</v>
       </c>
       <c r="C811" t="n">
-        <v>4.724460602975968e-28</v>
+        <v>4.743694498362515e-28</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.497911378193183</v>
       </c>
       <c r="C812" t="n">
-        <v>4.870915711452296e-28</v>
+        <v>4.886445701595757e-28</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.498828585676048</v>
       </c>
       <c r="C813" t="n">
-        <v>5.037695971296446e-28</v>
+        <v>5.048830019252653e-28</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.499745793158913</v>
       </c>
       <c r="C814" t="n">
-        <v>5.22578448788777e-28</v>
+        <v>5.231789810815203e-28</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.500663000641778</v>
       </c>
       <c r="C815" t="n">
-        <v>5.435940293319578e-28</v>
+        <v>5.436067328194761e-28</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.501580208124643</v>
       </c>
       <c r="C816" t="n">
-        <v>5.666455754560334e-28</v>
+        <v>5.660201979873917e-28</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.502497415607507</v>
       </c>
       <c r="C817" t="n">
-        <v>5.914095091963736e-28</v>
+        <v>5.901368470349054e-28</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.503414623090372</v>
       </c>
       <c r="C818" t="n">
-        <v>6.175599753398404e-28</v>
+        <v>6.156721167258254e-28</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.504331830573237</v>
       </c>
       <c r="C819" t="n">
-        <v>6.447711186732969e-28</v>
+        <v>6.423414438239606e-28</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.505249038056102</v>
       </c>
       <c r="C820" t="n">
-        <v>6.727170839836053e-28</v>
+        <v>6.698602650931201e-28</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.506166245538967</v>
       </c>
       <c r="C821" t="n">
-        <v>7.010720160576281e-28</v>
+        <v>6.979440172971122e-28</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.507083453021832</v>
       </c>
       <c r="C822" t="n">
-        <v>7.295100596822278e-28</v>
+        <v>7.263081371997456e-28</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.508000660504697</v>
       </c>
       <c r="C823" t="n">
-        <v>7.577053596442669e-28</v>
+        <v>7.546680615648294e-28</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.508917867987562</v>
       </c>
       <c r="C824" t="n">
-        <v>7.853320607306078e-28</v>
+        <v>7.827392271561718e-28</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.509835075470427</v>
       </c>
       <c r="C825" t="n">
-        <v>8.12070447513387e-28</v>
+        <v>8.102348442198538e-28</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.510752282953292</v>
       </c>
       <c r="C826" t="n">
-        <v>8.376495648419598e-28</v>
+        <v>8.368504406862334e-28</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.511669490436157</v>
       </c>
       <c r="C827" t="n">
-        <v>8.618217099886284e-28</v>
+        <v>8.622731122800451e-28</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.512586697919022</v>
       </c>
       <c r="C828" t="n">
-        <v>8.843393234276837e-28</v>
+        <v>8.861899027955795e-28</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.513503905401887</v>
       </c>
       <c r="C829" t="n">
-        <v>9.049548456334169e-28</v>
+        <v>9.082878560271287e-28</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.514421112884752</v>
       </c>
       <c r="C830" t="n">
-        <v>9.234207170801195e-28</v>
+        <v>9.282540157689837e-28</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.515338320367617</v>
       </c>
       <c r="C831" t="n">
-        <v>9.394893782420821e-28</v>
+        <v>9.457754258154355e-28</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.516255527850482</v>
       </c>
       <c r="C832" t="n">
-        <v>9.529132695935959e-28</v>
+        <v>9.605391299607754e-28</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.517172735333347</v>
       </c>
       <c r="C833" t="n">
-        <v>9.634448316089521e-28</v>
+        <v>9.722321719992948e-28</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.518089942816211</v>
       </c>
       <c r="C834" t="n">
-        <v>9.708365047624362e-28</v>
+        <v>9.805415957252789e-28</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.519007150299077</v>
       </c>
       <c r="C835" t="n">
-        <v>9.748407295283559e-28</v>
+        <v>9.851544449330376e-28</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.519924357781941</v>
       </c>
       <c r="C836" t="n">
-        <v>9.752099463809873e-28</v>
+        <v>9.85757763416845e-28</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.520841565264806</v>
       </c>
       <c r="C837" t="n">
-        <v>9.71696595794622e-28</v>
+        <v>9.820385949709939e-28</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.52175877274767</v>
       </c>
       <c r="C838" t="n">
-        <v>9.64053118243566e-28</v>
+        <v>9.736839833897908e-28</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.522675980230535</v>
       </c>
       <c r="C839" t="n">
-        <v>9.521100753126028e-28</v>
+        <v>9.604829283825573e-28</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.5235931877134</v>
       </c>
       <c r="C840" t="n">
-        <v>9.361817609335656e-28</v>
+        <v>9.428557490773974e-28</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.524510395196265</v>
       </c>
       <c r="C841" t="n">
-        <v>9.167673913333329e-28</v>
+        <v>9.214641068168492e-28</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.52542760267913</v>
       </c>
       <c r="C842" t="n">
-        <v>8.94366554097722e-28</v>
+        <v>8.96970147604254e-28</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.526344810161995</v>
       </c>
       <c r="C843" t="n">
-        <v>8.694788368125485e-28</v>
+        <v>8.700360174429552e-28</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.52726201764486</v>
       </c>
       <c r="C844" t="n">
-        <v>8.426038270636294e-28</v>
+        <v>8.413238623362942e-28</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.528179225127725</v>
       </c>
       <c r="C845" t="n">
-        <v>8.142411124367815e-28</v>
+        <v>8.11495828287614e-28</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.52909643261059</v>
       </c>
       <c r="C846" t="n">
-        <v>7.848902805178211e-28</v>
+        <v>7.81214061300257e-28</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.530013640093455</v>
       </c>
       <c r="C847" t="n">
-        <v>7.550509188925646e-28</v>
+        <v>7.511407073775652e-28</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.53093084757632</v>
       </c>
       <c r="C848" t="n">
-        <v>7.252169843019451e-28</v>
+        <v>7.219229861965408e-28</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.531848055059185</v>
       </c>
       <c r="C849" t="n">
-        <v>6.957602910517321e-28</v>
+        <v>6.938843404726514e-28</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.53276526254205</v>
       </c>
       <c r="C850" t="n">
-        <v>6.669344687929622e-28</v>
+        <v>6.670349273023426e-28</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.533682470024915</v>
       </c>
       <c r="C851" t="n">
-        <v>6.389883081571199e-28</v>
+        <v>6.413720764379381e-28</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.53459967750778</v>
       </c>
       <c r="C852" t="n">
-        <v>6.121705997756881e-28</v>
+        <v>6.168931176317609e-28</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.535516884990645</v>
       </c>
       <c r="C853" t="n">
-        <v>5.86730134280151e-28</v>
+        <v>5.935953806361348e-28</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.53643409247351</v>
       </c>
       <c r="C854" t="n">
-        <v>5.629157023019924e-28</v>
+        <v>5.714761952033829e-28</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.537351299956375</v>
       </c>
       <c r="C855" t="n">
-        <v>5.409760944726959e-28</v>
+        <v>5.505328910858288e-28</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.538268507439239</v>
       </c>
       <c r="C856" t="n">
-        <v>5.211601014237455e-28</v>
+        <v>5.307627980357956e-28</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.539185714922104</v>
       </c>
       <c r="C857" t="n">
-        <v>5.037159828182531e-28</v>
+        <v>5.121632263407379e-28</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.540102922404969</v>
       </c>
       <c r="C858" t="n">
-        <v>4.887189007641884e-28</v>
+        <v>4.947251406723774e-28</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.541020129887834</v>
       </c>
       <c r="C859" t="n">
-        <v>4.75822733638021e-28</v>
+        <v>4.784240617831255e-28</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.541937337370699</v>
       </c>
       <c r="C860" t="n">
-        <v>4.646184914842536e-28</v>
+        <v>4.632332057234229e-28</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.542854544853564</v>
       </c>
       <c r="C861" t="n">
-        <v>4.546971843473885e-28</v>
+        <v>4.49125788543711e-28</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.543771752336429</v>
       </c>
       <c r="C862" t="n">
-        <v>4.456498222719283e-28</v>
+        <v>4.360750262944304e-28</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.544688959819294</v>
       </c>
       <c r="C863" t="n">
-        <v>4.370674153023756e-28</v>
+        <v>4.240541350260222e-28</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.545606167302159</v>
       </c>
       <c r="C864" t="n">
-        <v>4.285409734832326e-28</v>
+        <v>4.130363307889273e-28</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.546523374785024</v>
       </c>
       <c r="C865" t="n">
-        <v>4.197204419936352e-28</v>
+        <v>4.029978970026431e-28</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.547440582267889</v>
       </c>
       <c r="C866" t="n">
-        <v>4.107086940572423e-28</v>
+        <v>3.939386904182146e-28</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.548357789750754</v>
       </c>
       <c r="C867" t="n">
-        <v>4.018186045824992e-28</v>
+        <v>3.858694976449746e-28</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.549274997233619</v>
       </c>
       <c r="C868" t="n">
-        <v>3.933641986116225e-28</v>
+        <v>3.788011651527235e-28</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.550192204716484</v>
       </c>
       <c r="C869" t="n">
-        <v>3.856595011868292e-28</v>
+        <v>3.727445394112619e-28</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.551109412199349</v>
       </c>
       <c r="C870" t="n">
-        <v>3.790185373503365e-28</v>
+        <v>3.677104668903906e-28</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.552026619682213</v>
       </c>
       <c r="C871" t="n">
-        <v>3.737497458124352e-28</v>
+        <v>3.637096822583202e-28</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.552943827165079</v>
       </c>
       <c r="C872" t="n">
-        <v>3.699827298700501e-28</v>
+        <v>3.607493410754608e-28</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.553861034647943</v>
       </c>
       <c r="C873" t="n">
-        <v>3.676348020187676e-28</v>
+        <v>3.588323502378087e-28</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.554778242130809</v>
       </c>
       <c r="C874" t="n">
-        <v>3.66610935598249e-28</v>
+        <v>3.579613696926632e-28</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.555695449613673</v>
       </c>
       <c r="C875" t="n">
-        <v>3.668161039481691e-28</v>
+        <v>3.581390593873343e-28</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.556612657096538</v>
       </c>
       <c r="C876" t="n">
-        <v>3.681552804081968e-28</v>
+        <v>3.593680792691274e-28</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.557529864579402</v>
       </c>
       <c r="C877" t="n">
-        <v>3.705334383180028e-28</v>
+        <v>3.616510892853497e-28</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.558447072062267</v>
       </c>
       <c r="C878" t="n">
-        <v>3.738555510172577e-28</v>
+        <v>3.649907493833075e-28</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.559364279545132</v>
       </c>
       <c r="C879" t="n">
-        <v>3.780270395124467e-28</v>
+        <v>3.693872428926411e-28</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.560281487027997</v>
       </c>
       <c r="C880" t="n">
-        <v>3.829639968820943e-28</v>
+        <v>3.747817122642157e-28</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.561198694510862</v>
       </c>
       <c r="C881" t="n">
-        <v>3.885934012887386e-28</v>
+        <v>3.81055080628477e-28</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.562115901993727</v>
       </c>
       <c r="C882" t="n">
-        <v>3.948427211693434e-28</v>
+        <v>3.880855587810158e-28</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.563033109476592</v>
       </c>
       <c r="C883" t="n">
-        <v>4.016394249608729e-28</v>
+        <v>3.957513575174236e-28</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.563950316959457</v>
       </c>
       <c r="C884" t="n">
-        <v>4.08910981100291e-28</v>
+        <v>4.039306876332918e-28</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.564867524442322</v>
       </c>
       <c r="C885" t="n">
-        <v>4.165848580245619e-28</v>
+        <v>4.125017599242117e-28</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.565784731925187</v>
       </c>
       <c r="C886" t="n">
-        <v>4.245885241706495e-28</v>
+        <v>4.213427851857743e-28</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.566701939408052</v>
       </c>
       <c r="C887" t="n">
-        <v>4.328494479755177e-28</v>
+        <v>4.303319742135711e-28</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.567619146890917</v>
       </c>
       <c r="C888" t="n">
-        <v>4.412942735786158e-28</v>
+        <v>4.39352864985013e-28</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.568536354373782</v>
       </c>
       <c r="C889" t="n">
-        <v>4.498436119738334e-28</v>
+        <v>4.48327985845379e-28</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.569453561856647</v>
       </c>
       <c r="C890" t="n">
-        <v>4.58415392969277e-28</v>
+        <v>4.571971928206739e-28</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.570370769339512</v>
       </c>
       <c r="C891" t="n">
-        <v>4.669275342087721e-28</v>
+        <v>4.659004205509156e-28</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.571287976822377</v>
       </c>
       <c r="C892" t="n">
-        <v>4.752979533361436e-28</v>
+        <v>4.743776036761219e-28</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.572205184305242</v>
       </c>
       <c r="C893" t="n">
-        <v>4.834445679952175e-28</v>
+        <v>4.82568676836311e-28</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.573122391788107</v>
       </c>
       <c r="C894" t="n">
-        <v>4.91285295829819e-28</v>
+        <v>4.904135746715009e-28</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.574039599270971</v>
       </c>
       <c r="C895" t="n">
-        <v>4.987380544837735e-28</v>
+        <v>4.978522318217091e-28</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.574956806753836</v>
       </c>
       <c r="C896" t="n">
-        <v>5.057207616009063e-28</v>
+        <v>5.04824582926954e-28</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.575874014236701</v>
       </c>
       <c r="C897" t="n">
-        <v>5.121506821561021e-28</v>
+        <v>5.112698198850524e-28</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.576791221719566</v>
       </c>
       <c r="C898" t="n">
-        <v>5.17881361297275e-28</v>
+        <v>5.170546209478266e-28</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.577708429202431</v>
       </c>
       <c r="C899" t="n">
-        <v>5.226500482362397e-28</v>
+        <v>5.219133187104665e-28</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.578625636685296</v>
       </c>
       <c r="C900" t="n">
-        <v>5.261816156478589e-28</v>
+        <v>5.255661611753137e-28</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.579542844168161</v>
       </c>
       <c r="C901" t="n">
-        <v>5.282009362069947e-28</v>
+        <v>5.277333963447098e-28</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.580460051651026</v>
       </c>
       <c r="C902" t="n">
-        <v>5.284328825885085e-28</v>
+        <v>5.281352722209959e-28</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.581377259133891</v>
       </c>
       <c r="C903" t="n">
-        <v>5.266023274672626e-28</v>
+        <v>5.264920368065138e-28</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.582294466616756</v>
       </c>
       <c r="C904" t="n">
-        <v>5.224341435181192e-28</v>
+        <v>5.225239381036047e-28</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.583211674099621</v>
       </c>
       <c r="C905" t="n">
-        <v>5.156532034159401e-28</v>
+        <v>5.1595122411461e-28</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.584128881582486</v>
       </c>
       <c r="C906" t="n">
-        <v>5.059845488837661e-28</v>
+        <v>5.064943115232192e-28</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.585046089065351</v>
       </c>
       <c r="C907" t="n">
-        <v>4.933025152509061e-28</v>
+        <v>4.940225866554881e-28</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.585963296548215</v>
       </c>
       <c r="C908" t="n">
-        <v>4.7790461567888e-28</v>
+        <v>4.78827695382927e-28</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.586880504031081</v>
       </c>
       <c r="C909" t="n">
-        <v>4.601628264328853e-28</v>
+        <v>4.612755850973977e-28</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.587797711513945</v>
       </c>
       <c r="C910" t="n">
-        <v>4.404491237782365e-28</v>
+        <v>4.417322031908772e-28</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.588714918996811</v>
       </c>
       <c r="C911" t="n">
-        <v>4.191355863052636e-28</v>
+        <v>4.20563599389609e-28</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.589632126479675</v>
       </c>
       <c r="C912" t="n">
-        <v>3.969491920573121e-28</v>
+        <v>3.984907549525738e-28</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.59054933396254</v>
       </c>
       <c r="C913" t="n">
-        <v>3.757663972617265e-28</v>
+        <v>3.773842332252551e-28</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.591466541445405</v>
       </c>
       <c r="C914" t="n">
-        <v>3.576959595278183e-28</v>
+        <v>3.593469199330616e-28</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.59238374892827</v>
       </c>
       <c r="C915" t="n">
-        <v>3.448466364648777e-28</v>
+        <v>3.464817008013804e-28</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.593300956411134</v>
       </c>
       <c r="C916" t="n">
-        <v>3.393271693361417e-28</v>
+        <v>3.408914453953237e-28</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.594218163893999</v>
       </c>
       <c r="C917" t="n">
-        <v>3.421524310741949e-28</v>
+        <v>3.435975870966556e-28</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.595135371376864</v>
       </c>
       <c r="C918" t="n">
-        <v>3.502808262853772e-28</v>
+        <v>3.516111939610039e-28</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.596052578859729</v>
       </c>
       <c r="C919" t="n">
-        <v>3.59730657913508e-28</v>
+        <v>3.610139169236852e-28</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.596969786342594</v>
       </c>
       <c r="C920" t="n">
-        <v>3.665975870152695e-28</v>
+        <v>3.679621395242096e-28</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.597886993825459</v>
       </c>
       <c r="C921" t="n">
-        <v>3.689866826063317e-28</v>
+        <v>3.705534546220391e-28</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.598804201308324</v>
       </c>
       <c r="C922" t="n">
-        <v>3.671492771883576e-28</v>
+        <v>3.689588750924407e-28</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.599721408791189</v>
       </c>
       <c r="C923" t="n">
-        <v>3.614414697360797e-28</v>
+        <v>3.63450624544435e-28</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.600638616274054</v>
       </c>
       <c r="C924" t="n">
-        <v>3.522193592242305e-28</v>
+        <v>3.543009265870431e-28</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.601555823756919</v>
       </c>
       <c r="C925" t="n">
-        <v>3.39839083628444e-28</v>
+        <v>3.417820515513843e-28</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.602473031239784</v>
       </c>
       <c r="C926" t="n">
-        <v>3.24924132107658e-28</v>
+        <v>3.264865497554939e-28</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.603390238722649</v>
       </c>
       <c r="C927" t="n">
-        <v>3.090037117682722e-28</v>
+        <v>3.100919988166238e-28</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.604307446205514</v>
       </c>
       <c r="C928" t="n">
-        <v>2.937986411482791e-28</v>
+        <v>2.94505522023174e-28</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.605224653688379</v>
       </c>
       <c r="C929" t="n">
-        <v>2.810119600242424e-28</v>
+        <v>2.816144192090321e-28</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.606141861171244</v>
       </c>
       <c r="C930" t="n">
-        <v>2.711536651645122e-28</v>
+        <v>2.71975738159924e-28</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.607059068654109</v>
       </c>
       <c r="C931" t="n">
-        <v>2.628079972925935e-28</v>
+        <v>2.639992939924452e-28</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.607976276136974</v>
       </c>
       <c r="C932" t="n">
-        <v>2.543842603395016e-28</v>
+        <v>2.558998459661041e-28</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.608893483619839</v>
       </c>
       <c r="C933" t="n">
-        <v>2.443284848532229e-28</v>
+        <v>2.459353602140388e-28</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.609810691102703</v>
       </c>
       <c r="C934" t="n">
-        <v>2.319836852641809e-28</v>
+        <v>2.334190557745594e-28</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.610727898585568</v>
       </c>
       <c r="C935" t="n">
-        <v>2.176198981779925e-28</v>
+        <v>2.187547430139659e-28</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.611645106068433</v>
       </c>
       <c r="C936" t="n">
-        <v>2.015498971966627e-28</v>
+        <v>2.023965091492205e-28</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.612562313551298</v>
       </c>
       <c r="C937" t="n">
-        <v>1.841130774464277e-28</v>
+        <v>1.847940568735909e-28</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.613479521034163</v>
       </c>
       <c r="C938" t="n">
-        <v>1.657460757753557e-28</v>
+        <v>1.663810733197874e-28</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.614396728517028</v>
       </c>
       <c r="C939" t="n">
-        <v>1.469077258281055e-28</v>
+        <v>1.475875898425955e-28</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.615313935999893</v>
       </c>
       <c r="C940" t="n">
-        <v>1.280568612493356e-28</v>
+        <v>1.288436377968012e-28</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.616231143482758</v>
       </c>
       <c r="C941" t="n">
-        <v>1.096523156837047e-28</v>
+        <v>1.105792485371902e-28</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.617148350965623</v>
       </c>
       <c r="C942" t="n">
-        <v>9.215292277587159e-29</v>
+        <v>9.322445341854822e-29</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.618065558448488</v>
       </c>
       <c r="C943" t="n">
-        <v>7.601751617049498e-29</v>
+        <v>7.720928379566111e-29</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.618982765931353</v>
       </c>
       <c r="C944" t="n">
-        <v>6.170492951223358e-29</v>
+        <v>6.296377102331468e-29</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.619899973414217</v>
       </c>
       <c r="C945" t="n">
-        <v>4.967399644575645e-29</v>
+        <v>5.091794645630514e-29</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.620817180897083</v>
       </c>
       <c r="C946" t="n">
-        <v>4.037670463624251e-29</v>
+        <v>4.149566809113144e-29</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.621734388379947</v>
       </c>
       <c r="C947" t="n">
-        <v>3.378755450267035e-29</v>
+        <v>3.469022005896398e-29</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.622651595862813</v>
       </c>
       <c r="C948" t="n">
-        <v>2.90997864881015e-29</v>
+        <v>2.979038573133369e-29</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.623568803345677</v>
       </c>
       <c r="C949" t="n">
-        <v>2.543963977460526e-29</v>
+        <v>2.602383016468675e-29</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.624486010828542</v>
       </c>
       <c r="C950" t="n">
-        <v>2.227287856086245e-29</v>
+        <v>2.287916281510413e-29</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.625403218311407</v>
       </c>
       <c r="C951" t="n">
-        <v>1.960594319217355e-29</v>
+        <v>2.026053368967113e-29</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.626320425794272</v>
       </c>
       <c r="C952" t="n">
-        <v>1.74835545761272e-29</v>
+        <v>1.811100834366062e-29</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.627237633277137</v>
       </c>
       <c r="C953" t="n">
-        <v>1.587697579436133e-29</v>
+        <v>1.638725421417924e-29</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.628154840760001</v>
       </c>
       <c r="C954" t="n">
-        <v>1.472459249902575e-29</v>
+        <v>1.505202651598162e-29</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.629072048242866</v>
       </c>
       <c r="C955" t="n">
-        <v>1.396463625578497e-29</v>
+        <v>1.406810899537957e-29</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.629989255725731</v>
       </c>
       <c r="C956" t="n">
-        <v>1.35353386303035e-29</v>
+        <v>1.339828539868498e-29</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.630906463208596</v>
       </c>
       <c r="C957" t="n">
-        <v>1.337493118824584e-29</v>
+        <v>1.300533947220968e-29</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.631823670691461</v>
       </c>
       <c r="C958" t="n">
-        <v>1.342168323935073e-29</v>
+        <v>1.285207044286694e-29</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.632740878174326</v>
       </c>
       <c r="C959" t="n">
-        <v>1.362665933452766e-29</v>
+        <v>1.290652546144722e-29</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.633658085657191</v>
       </c>
       <c r="C960" t="n">
-        <v>1.397228935038777e-29</v>
+        <v>1.314961605851082e-29</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.634575293140056</v>
       </c>
       <c r="C961" t="n">
-        <v>1.444572117282347e-29</v>
+        <v>1.3564188839794e-29</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.635492500622921</v>
       </c>
       <c r="C962" t="n">
-        <v>1.503410268772719e-29</v>
+        <v>1.413309041103303e-29</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.636409708105786</v>
       </c>
       <c r="C963" t="n">
-        <v>1.572458178099133e-29</v>
+        <v>1.483916737796415e-29</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.637326915588651</v>
       </c>
       <c r="C964" t="n">
-        <v>1.650430633850833e-29</v>
+        <v>1.566526634632366e-29</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.638244123071516</v>
       </c>
       <c r="C965" t="n">
-        <v>1.736042424617058e-29</v>
+        <v>1.65942339218478e-29</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.639161330554381</v>
       </c>
       <c r="C966" t="n">
-        <v>1.828008338987051e-29</v>
+        <v>1.760891671027285e-29</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.640078538037246</v>
       </c>
       <c r="C967" t="n">
-        <v>1.925043165550053e-29</v>
+        <v>1.869216131733505e-29</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.640995745520111</v>
       </c>
       <c r="C968" t="n">
-        <v>2.025861692895305e-29</v>
+        <v>1.982681434877068e-29</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.641912953002976</v>
       </c>
       <c r="C969" t="n">
-        <v>2.129178709612051e-29</v>
+        <v>2.0995722410316e-29</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.642830160485841</v>
       </c>
       <c r="C970" t="n">
-        <v>2.233709004289529e-29</v>
+        <v>2.218173210770728e-29</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.643747367968706</v>
       </c>
       <c r="C971" t="n">
-        <v>2.338167365516984e-29</v>
+        <v>2.336769004668078e-29</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.644664575451571</v>
       </c>
       <c r="C972" t="n">
-        <v>2.441268581883655e-29</v>
+        <v>2.453644283297276e-29</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.645581782934435</v>
       </c>
       <c r="C973" t="n">
-        <v>2.541727441978784e-29</v>
+        <v>2.567083707231949e-29</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.6464989904173</v>
       </c>
       <c r="C974" t="n">
-        <v>2.638258734391613e-29</v>
+        <v>2.675371937045723e-29</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.647416197900165</v>
       </c>
       <c r="C975" t="n">
-        <v>2.729577247711384e-29</v>
+        <v>2.776793633312225e-29</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.64833340538303</v>
       </c>
       <c r="C976" t="n">
-        <v>2.814397770527339e-29</v>
+        <v>2.86963345660508e-29</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.649250612865895</v>
       </c>
       <c r="C977" t="n">
-        <v>2.891435091428719e-29</v>
+        <v>2.952176067497916e-29</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.65016782034876</v>
       </c>
       <c r="C978" t="n">
-        <v>2.959439141091273e-29</v>
+        <v>3.022764160844394e-29</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.651085027831625</v>
       </c>
       <c r="C979" t="n">
-        <v>3.01781860161796e-29</v>
+        <v>3.08082830557162e-29</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.65200223531449</v>
       </c>
       <c r="C980" t="n">
-        <v>3.066567205774181e-29</v>
+        <v>3.126765233898407e-29</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.652919442797355</v>
       </c>
       <c r="C981" t="n">
-        <v>3.105699023180951e-29</v>
+        <v>3.161005262696357e-29</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.653836650280219</v>
       </c>
       <c r="C982" t="n">
-        <v>3.13522812345927e-29</v>
+        <v>3.183978708837067e-29</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.654753857763085</v>
       </c>
       <c r="C983" t="n">
-        <v>3.155168576230224e-29</v>
+        <v>3.196115889192189e-29</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.655671065245949</v>
       </c>
       <c r="C984" t="n">
-        <v>3.165534451114756e-29</v>
+        <v>3.197847120633287e-29</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.656588272728815</v>
       </c>
       <c r="C985" t="n">
-        <v>3.166339817733929e-29</v>
+        <v>3.189602720031978e-29</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.657505480211679</v>
       </c>
       <c r="C986" t="n">
-        <v>3.157598745708752e-29</v>
+        <v>3.171813004259895e-29</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.658422687694544</v>
       </c>
       <c r="C987" t="n">
-        <v>3.139325304660236e-29</v>
+        <v>3.144908290188612e-29</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.659339895177409</v>
       </c>
       <c r="C988" t="n">
-        <v>3.111533564209403e-29</v>
+        <v>3.109318894689748e-29</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.660257102660274</v>
       </c>
       <c r="C989" t="n">
-        <v>3.074237593977272e-29</v>
+        <v>3.065475134634911e-29</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.661174310143139</v>
       </c>
       <c r="C990" t="n">
-        <v>3.027451463584862e-29</v>
+        <v>3.013807326895708e-29</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.662091517626004</v>
       </c>
       <c r="C991" t="n">
-        <v>2.97118924265319e-29</v>
+        <v>2.954745788343748e-29</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.663008725108869</v>
       </c>
       <c r="C992" t="n">
-        <v>2.905465000803277e-29</v>
+        <v>2.888720835850637e-29</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.663925932591733</v>
       </c>
       <c r="C993" t="n">
-        <v>2.830292807656142e-29</v>
+        <v>2.816162786287985e-29</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.664843140074598</v>
       </c>
       <c r="C994" t="n">
-        <v>2.745686732832801e-29</v>
+        <v>2.737501956527397e-29</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.665760347557463</v>
       </c>
       <c r="C995" t="n">
-        <v>2.651660845954275e-29</v>
+        <v>2.653168663440481e-29</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.666677555040328</v>
       </c>
       <c r="C996" t="n">
-        <v>2.548229216641583e-29</v>
+        <v>2.563593223898847e-29</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.667594762523193</v>
       </c>
       <c r="C997" t="n">
-        <v>2.435405914515742e-29</v>
+        <v>2.469205954774101e-29</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.668511970006058</v>
       </c>
       <c r="C998" t="n">
-        <v>2.314090668000927e-29</v>
+        <v>2.370660758903821e-29</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.669429177488923</v>
       </c>
       <c r="C999" t="n">
-        <v>2.196376884352015e-29</v>
+        <v>2.271437401054844e-29</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.670346384971788</v>
       </c>
       <c r="C1000" t="n">
-        <v>2.102030263042497e-29</v>
+        <v>2.176952528302185e-29</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1001" t="n">
-        <v>2.05096623162064e-29</v>
+        <v>2.092660586810211e-29</v>
       </c>
     </row>
   </sheetData>
